--- a/sphinx-book/source/supervised/supervised/figures/linerexample.xlsx
+++ b/sphinx-book/source/supervised/supervised/figures/linerexample.xlsx
@@ -160,100 +160,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>8.6590788770635925</c:v>
+                  <c:v>8.0956983761338428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2841430662631756</c:v>
+                  <c:v>6.3584709142937363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.3933217202064716</c:v>
+                  <c:v>-9.0538699958343933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8979213190034248</c:v>
+                  <c:v>-8.7182265748940431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8921926260426432</c:v>
+                  <c:v>8.9200259897714638</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1365854752402385</c:v>
+                  <c:v>-9.3042265832076261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.5407156045591925</c:v>
+                  <c:v>-4.4133448161558704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.7111883582101646</c:v>
+                  <c:v>9.2447384598757267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8529305486597103</c:v>
+                  <c:v>2.7177465556659968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4686404589964575</c:v>
+                  <c:v>5.8753709196157988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2734870951730954</c:v>
+                  <c:v>-2.9620475485804487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4568148099960787</c:v>
+                  <c:v>-1.7930056336306706</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.7549126466105278</c:v>
+                  <c:v>-2.3413799644704358</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.4216913545831105</c:v>
+                  <c:v>4.742625546582385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.2352630892991865</c:v>
+                  <c:v>-2.0075984973084449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8692795334001531</c:v>
+                  <c:v>9.333353674828885</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3725470195343483</c:v>
+                  <c:v>2.570708236659776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.48688608615028706</c:v>
+                  <c:v>-4.8462254027891838</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.464469348912175</c:v>
+                  <c:v>2.5717899807409488</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3344434387815713</c:v>
+                  <c:v>-9.0447708792058297</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.17238842880654204</c:v>
+                  <c:v>5.0938543900127939</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4220107422174273</c:v>
+                  <c:v>-5.6652526934797809</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8313211790367916</c:v>
+                  <c:v>1.193065753965513</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.8655156333648719</c:v>
+                  <c:v>-8.7396015422229123</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.7449628527101577</c:v>
+                  <c:v>-5.8504340646699493</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8983657636616886</c:v>
+                  <c:v>4.5563085794710005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5.0088238515256789</c:v>
+                  <c:v>-0.50986669413980401</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6.6941104858112466</c:v>
+                  <c:v>-0.24261640966571107</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-8.8446258660020298</c:v>
+                  <c:v>7.9304074553934676</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.5624952762693809</c:v>
+                  <c:v>6.2014988414571981</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1925021591615899</c:v>
+                  <c:v>-3.5243415840914105</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.45375608043095994</c:v>
+                  <c:v>6.0344773562181402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -265,100 +265,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>26.098233089866206</c:v>
+                  <c:v>23.516836372566999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.4406431562717383</c:v>
+                  <c:v>9.7927900537197523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.7197840831272853</c:v>
+                  <c:v>-39.964745723879041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0629258000806132</c:v>
+                  <c:v>-30.353108440276458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1398363884129132</c:v>
+                  <c:v>26.166626012538096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36237316351905768</c:v>
+                  <c:v>-37.422312604455122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-26.830086708882241</c:v>
+                  <c:v>-18.035470189791202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.6931342909662224</c:v>
+                  <c:v>24.393674735037003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3015410595750883</c:v>
+                  <c:v>-4.5894989460333768</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7829670717939727</c:v>
+                  <c:v>15.703714798576476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.967522288170429</c:v>
+                  <c:v>-7.5080423854717271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.631790614940769</c:v>
+                  <c:v>-11.815063330453654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.404662155770986</c:v>
+                  <c:v>-14.963211243563213</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.947435153992171</c:v>
+                  <c:v>2.2820824770814472</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-19.503609558803056</c:v>
+                  <c:v>-5.0683059129149015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.503590786188436</c:v>
+                  <c:v>28.449406423645499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.466312913114884</c:v>
+                  <c:v>3.0863791540935406</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.1253638195594462</c:v>
+                  <c:v>-25.640957704063428</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-19.853455059597582</c:v>
+                  <c:v>7.7958445188613386</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.9977973057784144</c:v>
+                  <c:v>-26.250613886468429</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.16240902129444734</c:v>
+                  <c:v>8.1661960921313863</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.8716384069934957</c:v>
+                  <c:v>-21.992417135811777</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.584886855573863</c:v>
+                  <c:v>0.69834744053311582</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6389032708564546</c:v>
+                  <c:v>-31.963842249024765</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3589800872131814</c:v>
+                  <c:v>-17.519261579906498</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.7354206250785609</c:v>
+                  <c:v>9.8546287789354583</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-26.372431239146543</c:v>
+                  <c:v>-10.856846541179682</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-18.728556048011026</c:v>
+                  <c:v>-8.338762010397561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-24.810507019038031</c:v>
+                  <c:v>19.568059472444205</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-38.556423042831128</c:v>
+                  <c:v>5.8368880554364218</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.56480865976764605</c:v>
+                  <c:v>-19.453280391876987</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-5.574559983498748</c:v>
+                  <c:v>19.152451294974313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,100 +390,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>8.6590788770635925</c:v>
+                  <c:v>8.0956983761338428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2841430662631756</c:v>
+                  <c:v>6.3584709142937363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.3933217202064716</c:v>
+                  <c:v>-9.0538699958343933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8979213190034248</c:v>
+                  <c:v>-8.7182265748940431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8921926260426432</c:v>
+                  <c:v>8.9200259897714638</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1365854752402385</c:v>
+                  <c:v>-9.3042265832076261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.5407156045591925</c:v>
+                  <c:v>-4.4133448161558704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.7111883582101646</c:v>
+                  <c:v>9.2447384598757267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8529305486597103</c:v>
+                  <c:v>2.7177465556659968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4686404589964575</c:v>
+                  <c:v>5.8753709196157988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2734870951730954</c:v>
+                  <c:v>-2.9620475485804487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4568148099960787</c:v>
+                  <c:v>-1.7930056336306706</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.7549126466105278</c:v>
+                  <c:v>-2.3413799644704358</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.4216913545831105</c:v>
+                  <c:v>4.742625546582385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.2352630892991865</c:v>
+                  <c:v>-2.0075984973084449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8692795334001531</c:v>
+                  <c:v>9.333353674828885</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3725470195343483</c:v>
+                  <c:v>2.570708236659776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.48688608615028706</c:v>
+                  <c:v>-4.8462254027891838</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.464469348912175</c:v>
+                  <c:v>2.5717899807409488</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3344434387815713</c:v>
+                  <c:v>-9.0447708792058297</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.17238842880654204</c:v>
+                  <c:v>5.0938543900127939</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4220107422174273</c:v>
+                  <c:v>-5.6652526934797809</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8313211790367916</c:v>
+                  <c:v>1.193065753965513</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.8655156333648719</c:v>
+                  <c:v>-8.7396015422229123</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.7449628527101577</c:v>
+                  <c:v>-5.8504340646699493</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8983657636616886</c:v>
+                  <c:v>4.5563085794710005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5.0088238515256789</c:v>
+                  <c:v>-0.50986669413980401</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6.6941104858112466</c:v>
+                  <c:v>-0.24261640966571107</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-8.8446258660020298</c:v>
+                  <c:v>7.9304074553934676</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.5624952762693809</c:v>
+                  <c:v>6.2014988414571981</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1925021591615899</c:v>
+                  <c:v>-3.5243415840914105</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.45375608043095994</c:v>
+                  <c:v>6.0344773562181402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,100 +495,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>20.977236631190777</c:v>
+                  <c:v>19.287095128401528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.852429198789526</c:v>
+                  <c:v>14.075412742881209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12.179965160619414</c:v>
+                  <c:v>-32.161609987503184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6937639570102743</c:v>
+                  <c:v>-31.154679724682129</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6765778781279295</c:v>
+                  <c:v>21.760077969314391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4097564257207154</c:v>
+                  <c:v>-32.912679749622882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33.622146813677574</c:v>
+                  <c:v>-18.240034448467611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-16.133565074630493</c:v>
+                  <c:v>22.73421537962718</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5587916459791309</c:v>
+                  <c:v>3.1532396669979903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4059213769893724</c:v>
+                  <c:v>12.626112758847398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.820461285519286</c:v>
+                  <c:v>-13.886142645741346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.370444429988236</c:v>
+                  <c:v>-10.379016900892012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.264737939831583</c:v>
+                  <c:v>-12.024139893411308</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.265074063749331</c:v>
+                  <c:v>9.227876639747155</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-17.705789267897558</c:v>
+                  <c:v>-11.022795491925335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.607838600200459</c:v>
+                  <c:v>23.000061024486655</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.117641058603045</c:v>
+                  <c:v>2.712124709979328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.4606582584508612</c:v>
+                  <c:v>-19.538676208367551</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-12.393408046736525</c:v>
+                  <c:v>2.7153699422228463</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.003330316344716</c:v>
+                  <c:v>-32.134312637617491</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.5171652864196261</c:v>
+                  <c:v>10.281563170038382</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2660322266522819</c:v>
+                  <c:v>-21.995758080439344</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.493963537110375</c:v>
+                  <c:v>-1.4208027381034611</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.596546900094616</c:v>
+                  <c:v>-31.218804626668735</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2348885581304732</c:v>
+                  <c:v>-22.55130219400985</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.6950972909850659</c:v>
+                  <c:v>8.6689257384130016</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-20.026471554577036</c:v>
+                  <c:v>-6.529600082419412</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-25.082331457433739</c:v>
+                  <c:v>-5.7278492289971332</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-31.533877598006089</c:v>
+                  <c:v>18.791222366180403</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-30.687485828808143</c:v>
+                  <c:v>13.604496524371594</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.5775064774847696</c:v>
+                  <c:v>-15.573024752274232</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3.6387317587071202</c:v>
+                  <c:v>13.103432068654421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,100 +849,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>8.6590788770635925</c:v>
+                  <c:v>8.0956983761338428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2841430662631756</c:v>
+                  <c:v>6.3584709142937363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.3933217202064716</c:v>
+                  <c:v>-9.0538699958343933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8979213190034248</c:v>
+                  <c:v>-8.7182265748940431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8921926260426432</c:v>
+                  <c:v>8.9200259897714638</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1365854752402385</c:v>
+                  <c:v>-9.3042265832076261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.5407156045591925</c:v>
+                  <c:v>-4.4133448161558704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.7111883582101646</c:v>
+                  <c:v>9.2447384598757267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8529305486597103</c:v>
+                  <c:v>2.7177465556659968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4686404589964575</c:v>
+                  <c:v>5.8753709196157988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2734870951730954</c:v>
+                  <c:v>-2.9620475485804487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4568148099960787</c:v>
+                  <c:v>-1.7930056336306706</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.7549126466105278</c:v>
+                  <c:v>-2.3413799644704358</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.4216913545831105</c:v>
+                  <c:v>4.742625546582385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.2352630892991865</c:v>
+                  <c:v>-2.0075984973084449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8692795334001531</c:v>
+                  <c:v>9.333353674828885</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3725470195343483</c:v>
+                  <c:v>2.570708236659776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.48688608615028706</c:v>
+                  <c:v>-4.8462254027891838</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.464469348912175</c:v>
+                  <c:v>2.5717899807409488</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3344434387815713</c:v>
+                  <c:v>-9.0447708792058297</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.17238842880654204</c:v>
+                  <c:v>5.0938543900127939</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4220107422174273</c:v>
+                  <c:v>-5.6652526934797809</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8313211790367916</c:v>
+                  <c:v>1.193065753965513</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.8655156333648719</c:v>
+                  <c:v>-8.7396015422229123</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.7449628527101577</c:v>
+                  <c:v>-5.8504340646699493</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8983657636616886</c:v>
+                  <c:v>4.5563085794710005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5.0088238515256789</c:v>
+                  <c:v>-0.50986669413980401</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6.6941104858112466</c:v>
+                  <c:v>-0.24261640966571107</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-8.8446258660020298</c:v>
+                  <c:v>7.9304074553934676</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.5624952762693809</c:v>
+                  <c:v>6.2014988414571981</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1925021591615899</c:v>
+                  <c:v>-3.5243415840914105</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.45375608043095994</c:v>
+                  <c:v>6.0344773562181402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,100 +954,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>26.098233089866206</c:v>
+                  <c:v>23.516836372566999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.4406431562717383</c:v>
+                  <c:v>9.7927900537197523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.7197840831272853</c:v>
+                  <c:v>-39.964745723879041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0629258000806132</c:v>
+                  <c:v>-30.353108440276458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1398363884129132</c:v>
+                  <c:v>26.166626012538096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36237316351905768</c:v>
+                  <c:v>-37.422312604455122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-26.830086708882241</c:v>
+                  <c:v>-18.035470189791202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.6931342909662224</c:v>
+                  <c:v>24.393674735037003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3015410595750883</c:v>
+                  <c:v>-4.5894989460333768</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7829670717939727</c:v>
+                  <c:v>15.703714798576476</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.967522288170429</c:v>
+                  <c:v>-7.5080423854717271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.631790614940769</c:v>
+                  <c:v>-11.815063330453654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.404662155770986</c:v>
+                  <c:v>-14.963211243563213</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.947435153992171</c:v>
+                  <c:v>2.2820824770814472</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-19.503609558803056</c:v>
+                  <c:v>-5.0683059129149015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.503590786188436</c:v>
+                  <c:v>28.449406423645499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.466312913114884</c:v>
+                  <c:v>3.0863791540935406</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.1253638195594462</c:v>
+                  <c:v>-25.640957704063428</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-19.853455059597582</c:v>
+                  <c:v>7.7958445188613386</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.9977973057784144</c:v>
+                  <c:v>-26.250613886468429</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.16240902129444734</c:v>
+                  <c:v>8.1661960921313863</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.8716384069934957</c:v>
+                  <c:v>-21.992417135811777</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.584886855573863</c:v>
+                  <c:v>0.69834744053311582</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.6389032708564546</c:v>
+                  <c:v>-31.963842249024765</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3589800872131814</c:v>
+                  <c:v>-17.519261579906498</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.7354206250785609</c:v>
+                  <c:v>9.8546287789354583</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-26.372431239146543</c:v>
+                  <c:v>-10.856846541179682</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-18.728556048011026</c:v>
+                  <c:v>-8.338762010397561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-24.810507019038031</c:v>
+                  <c:v>19.568059472444205</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-38.556423042831128</c:v>
+                  <c:v>5.8368880554364218</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.56480865976764605</c:v>
+                  <c:v>-19.453280391876987</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-5.574559983498748</c:v>
+                  <c:v>19.152451294974313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,30 +2737,30 @@
       </c>
       <c r="C4">
         <f ca="1">RAND() * 20 - 10</f>
-        <v>8.6590788770635925</v>
+        <v>8.0956983761338428</v>
       </c>
       <c r="D4">
         <f ca="1">E4+(RAND() * 16-8)</f>
-        <v>26.098233089866206</v>
+        <v>23.516836372566999</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E17" ca="1" si="0">A4*C4+B4</f>
-        <v>20.977236631190777</v>
+        <v>19.287095128401528</v>
       </c>
       <c r="G4">
         <f ca="1">C4*C4</f>
-        <v>74.979646999208882</v>
+        <v>65.540332197336141</v>
       </c>
       <c r="H4">
         <f ca="1">C4*D4</f>
-        <v>225.98665887714256</v>
+        <v>190.38521403319595</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4">
         <f ca="1">SUM(C4:C35)</f>
-        <v>47.400528431652901</v>
+        <v>12.423332146340158</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2772,30 +2772,30 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C35" ca="1" si="1">RAND() * 20 - 10</f>
-        <v>-2.2841430662631756</v>
+        <v>6.3584709142937363</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D35" ca="1" si="2">E5+(RAND() * 16-8)</f>
-        <v>-4.4406431562717383</v>
+        <v>9.7927900537197523</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.852429198789526</v>
+        <v>14.075412742881209</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G25" ca="1" si="3">C5*C5</f>
-        <v>5.2173095471581421</v>
+        <v>40.430152367919426</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H25" ca="1" si="4">C5*D5</f>
-        <v>10.143064275147115</v>
+        <v>62.267170726362039</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5">
         <f ca="1">SUM(G4:G35)</f>
-        <v>998.87940799696366</v>
+        <v>1167.8951544611627</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2807,30 +2807,30 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3933217202064716</v>
+        <v>-9.0538699958343933</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.7197840831272853</v>
+        <v>-39.964745723879041</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.179965160619414</v>
+        <v>-32.161609987503184</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7279888564120647</v>
+        <v>81.972561901470272</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="4"/>
-        <v>16.082605201246263</v>
+        <v>361.83561220057931</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
       </c>
       <c r="L6">
         <f ca="1">SUM(D4:D35)</f>
-        <v>16.375480708248539</v>
+        <v>-127.27181459499285</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2842,30 +2842,30 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8979213190034248</v>
+        <v>-8.7182265748940431</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0629258000806132</v>
+        <v>-30.353108440276458</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6937639570102743</v>
+        <v>-31.154679724682129</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3979479711345491</v>
+        <v>76.007474611188712</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="4"/>
-        <v>14.67196061258608</v>
+        <v>264.62527663465892</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
       </c>
       <c r="L7">
         <f ca="1">SUM(H4:H35)</f>
-        <v>2696.1561155656991</v>
+        <v>3577.1130489389334</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2877,23 +2877,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8921926260426432</v>
+        <v>8.9200259897714638</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1398363884129132</v>
+        <v>26.166626012538096</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6765778781279295</v>
+        <v>21.760077969314391</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>15.149163438220727</v>
+        <v>79.566863658198386</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="4"/>
-        <v>27.789618542131677</v>
+        <v>233.40698409646987</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -2912,23 +2912,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1365854752402385</v>
+        <v>-9.3042265832076261</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36237316351905768</v>
+        <v>-37.422312604455122</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4097564257207154</v>
+        <v>-32.912679749622882</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5649974930075556</v>
+        <v>86.568632311667457</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77424123779167453</v>
+        <v>348.18567573947718</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2940,23 +2940,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5407156045591925</v>
+        <v>-4.4133448161558704</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>-26.830086708882241</v>
+        <v>-18.035470189791202</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.622146813677574</v>
+        <v>-18.240034448467611</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>91.025254247079275</v>
+        <v>19.477612466289894</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="4"/>
-        <v>255.97822693510898</v>
+        <v>79.596748869048724</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2968,30 +2968,30 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7111883582101646</v>
+        <v>9.2447384598757267</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.6931342909662224</v>
+        <v>24.393674735037003</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.133565074630493</v>
+        <v>22.73421537962718</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>13.772919030114657</v>
+        <v>85.465189191505431</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>35.973047135201583</v>
+        <v>225.51314300069541</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
       </c>
       <c r="L11">
         <f ca="1">(L8*L7-L4*L6)/(L8*L5-L4*L4)</f>
-        <v>2.8771355467091908</v>
+        <v>3.118055892613949</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3003,30 +3003,30 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8529305486597103</v>
+        <v>2.7177465556659968</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3015410595750883</v>
+        <v>-4.5894989460333768</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5587916459791309</v>
+        <v>3.1532396669979903</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>23.550934910114638</v>
+        <v>7.3861463408343893</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>25.728010562985716</v>
+        <v>-12.473094952814932</v>
       </c>
       <c r="K12" t="s">
         <v>3</v>
       </c>
       <c r="L12">
         <f ca="1">(L6*L5-L7*L4)/(L8*L5-L4*L4)</f>
-        <v>-3.7500707679768648</v>
+        <v>-5.1877643312434092</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3038,23 +3038,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4686404589964575</v>
+        <v>5.8753709196157988</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7829670717939727</v>
+        <v>15.703714798576476</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4059213769893724</v>
+        <v>12.626112758847398</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0941857157942403</v>
+        <v>34.519983443066998</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8701451094854997</v>
+        <v>92.265149257496503</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,23 +3066,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2734870951730954</v>
+        <v>-2.9620475485804487</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>16.967522288170429</v>
+        <v>-7.5080423854717271</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>16.820461285519286</v>
+        <v>-13.886142645741346</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>52.903614523649551</v>
+        <v>8.7737256800514452</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
-        <v>123.41305440006948</v>
+        <v>22.239178542524634</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3094,23 +3094,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4568148099960787</v>
+        <v>-1.7930056336306706</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>20.631790614940769</v>
+        <v>-11.815063330453654</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>14.370444429988236</v>
+        <v>-10.379016900892012</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>41.690457490584699</v>
+        <v>3.2148692022313226</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>133.21565119928766</v>
+        <v>21.184475113206556</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3122,23 +3122,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7549126466105278</v>
+        <v>-2.3413799644704358</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>21.404662155770986</v>
+        <v>-14.963211243563213</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>21.264737939831583</v>
+        <v>-12.024139893411308</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>76.648495449780953</v>
+        <v>5.4820601380235789</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="4"/>
-        <v>187.39594740398516</v>
+        <v>35.03456300981766</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3150,23 +3150,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4216913545831105</v>
+        <v>4.742625546582385</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>15.947435153992171</v>
+        <v>2.2820824770814472</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>14.265074063749331</v>
+        <v>9.227876639747155</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>41.238119853527465</v>
+        <v>22.492497075095866</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="4"/>
-        <v>102.4095064561663</v>
+        <v>10.823062655214482</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3178,23 +3178,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2352630892991865</v>
+        <v>-2.0075984973084449</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>-19.503609558803056</v>
+        <v>-5.0683059129149015</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:E25" ca="1" si="5">A18*C18+B18</f>
-        <v>-17.705789267897558</v>
+        <v>-11.022795491925335</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>17.937453435580089</v>
+        <v>4.0304517263951256</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="4"/>
-        <v>82.602917672501377</v>
+        <v>10.175123334667463</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3206,23 +3206,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8692795334001531</v>
+        <v>9.333353674828885</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>15.503590786188436</v>
+        <v>28.449406423645499</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="5"/>
-        <v>18.607838600200459</v>
+        <v>23.000061024486655</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>61.925560374790528</v>
+        <v>87.111490819441855</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="4"/>
-        <v>122.00208966796384</v>
+        <v>265.52837199083223</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,23 +3234,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3725470195343483</v>
+        <v>2.570708236659776</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>23.466312913114884</v>
+        <v>3.0863791540935406</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="5"/>
-        <v>17.117641058603045</v>
+        <v>2.712124709979328</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>54.354449555244805</v>
+        <v>6.6085408380304145</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="4"/>
-        <v>173.00649532704551</v>
+        <v>7.9341803128832966</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3262,23 +3262,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.48688608615028706</v>
+        <v>-4.8462254027891838</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.1253638195594462</v>
+        <v>-25.640957704063428</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="5"/>
-        <v>-6.4606582584508612</v>
+        <v>-19.538676208367551</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23705806088674475</v>
+        <v>23.485900654639188</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="4"/>
-        <v>6.1037899450149563E-2</v>
+        <v>124.26186057727521</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3290,23 +3290,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.464469348912175</v>
+        <v>2.5717899807409488</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>-19.853455059597582</v>
+        <v>7.7958445188613386</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>-12.393408046736525</v>
+        <v>2.7153699422228463</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0736091717275995</v>
+        <v>6.6141037050395299</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="4"/>
-        <v>48.928231464383579</v>
+        <v>20.049274825021833</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3318,23 +3318,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3344434387815713</v>
+        <v>-9.0447708792058297</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9977973057784144</v>
+        <v>-26.250613886468429</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="5"/>
-        <v>11.003330316344716</v>
+        <v>-32.134312637617491</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>28.456286801559756</v>
+        <v>81.807880257329799</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="4"/>
-        <v>42.663797362514593</v>
+        <v>237.43078804160581</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3346,23 +3346,23 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17238842880654204</v>
+        <v>5.0938543900127939</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16240902129444734</v>
+        <v>8.1661960921313863</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.5171652864196261</v>
+        <v>10.281563170038382</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9717770386388214E-2</v>
+        <v>25.947352546652613</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.7997436004958007E-2</v>
+        <v>41.597413813608782</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3374,23 +3374,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4220107422174273</v>
+        <v>-5.6652526934797809</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>8.8716384069934957</v>
+        <v>-21.992417135811777</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2660322266522819</v>
+        <v>-21.995758080439344</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8661360354166128</v>
+        <v>32.095088080979913</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="4"/>
-        <v>21.487203522806951</v>
+        <v>124.59260041478856</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3402,23 +3402,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8313211790367916</v>
+        <v>1.193065753965513</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>16.584886855573863</v>
+        <v>0.69834744053311582</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26:E35" ca="1" si="6">A26*C26+B26</f>
-        <v>18.493963537110375</v>
+        <v>-1.4208027381034611</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:G35" ca="1" si="7">C26*C26</f>
-        <v>61.329591409230204</v>
+        <v>1.423405893285298</v>
       </c>
       <c r="H26">
         <f t="shared" ref="H26:H35" ca="1" si="8">C26*D26</f>
-        <v>129.88157568398449</v>
+        <v>0.83317441566952799</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3430,23 +3430,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8655156333648719</v>
+        <v>-8.7396015422229123</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6389032708564546</v>
+        <v>-31.963842249024765</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>15.596546900094616</v>
+        <v>-31.218804626668735</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>47.135304911977457</v>
+        <v>76.380635116825104</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="8"/>
-        <v>52.445009827827043</v>
+        <v>279.3512450149467</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3458,23 +3458,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7449628527101577</v>
+        <v>-5.8504340646699493</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3589800872131814</v>
+        <v>-17.519261579906498</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2348885581304732</v>
+        <v>-22.55130219400985</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>7.5348210627586871</v>
+        <v>34.227578745050543</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="8"/>
-        <v>20.200126973233939</v>
+        <v>102.49528473494846</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3486,23 +3486,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8983657636616886</v>
+        <v>4.5563085794710005</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7354206250785609</v>
+        <v>9.8546287789354583</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6950972909850659</v>
+        <v>8.6689257384130016</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>15.19725562728958</v>
+        <v>20.759947871361046</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="8"/>
-        <v>30.155498932328761</v>
+        <v>44.90072965296546</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3514,23 +3514,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.0088238515256789</v>
+        <v>-0.50986669413980401</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>-26.372431239146543</v>
+        <v>-10.856846541179682</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="6"/>
-        <v>-20.026471554577036</v>
+        <v>-6.529600082419412</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>25.088316375612536</v>
+        <v>0.25996404579305243</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="8"/>
-        <v>132.09486261335812</v>
+        <v>5.5355444547344499</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3542,23 +3542,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6941104858112466</v>
+        <v>-0.24261640966571107</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>-18.728556048011026</v>
+        <v>-8.338762010397561</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="6"/>
-        <v>-25.082331457433739</v>
+        <v>-5.7278492289971332</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>44.811115196248082</v>
+        <v>5.8862722239080144E-2</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="8"/>
-        <v>125.37102342509425</v>
+        <v>2.0231205000194832</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3570,23 +3570,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.8446258660020298</v>
+        <v>7.9304074553934676</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>-24.810507019038031</v>
+        <v>19.568059472444205</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="6"/>
-        <v>-31.533877598006089</v>
+        <v>18.791222366180403</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>78.227406709552156</v>
+        <v>62.89136240856029</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="8"/>
-        <v>219.4396521292087</v>
+        <v>155.18268472785428</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3598,23 +3598,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5624952762693809</v>
+        <v>6.2014988414571981</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>-38.556423042831128</v>
+        <v>5.8368880554364218</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="6"/>
-        <v>-30.687485828808143</v>
+        <v>13.604496524371594</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>73.316325356135465</v>
+        <v>38.458587880594969</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="8"/>
-        <v>330.13919017408546</v>
+        <v>36.197454513504326</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3626,23 +3626,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1925021591615899</v>
+        <v>-3.5243415840914105</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56480865976764605</v>
+        <v>-19.453280391876987</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5775064774847696</v>
+        <v>-15.573024752274232</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>10.192070036251414</v>
+        <v>12.420983601355953</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8031528658213738</v>
+        <v>68.560005032082117</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3654,23 +3654,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45375608043095994</v>
+        <v>6.0344773562181402</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.574559983498748</v>
+        <v>19.152451294974313</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.6387317587071202</v>
+        <v>13.103432068654421</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20589458052806778</v>
+        <v>36.414916962709476</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.5294904882396687</v>
+        <v>115.57503365559329</v>
       </c>
     </row>
   </sheetData>

--- a/sphinx-book/source/supervised/supervised/figures/linerexample.xlsx
+++ b/sphinx-book/source/supervised/supervised/figures/linerexample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="9360" windowHeight="3480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,100 +160,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>8.0956983761338428</c:v>
+                  <c:v>-9.3236607823182176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3584709142937363</c:v>
+                  <c:v>7.2284492158691442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.0538699958343933</c:v>
+                  <c:v>-9.5544621066152029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.7182265748940431</c:v>
+                  <c:v>-6.9706693372283368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9200259897714638</c:v>
+                  <c:v>-6.9100130587423862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.3042265832076261</c:v>
+                  <c:v>-1.5297141091051554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.4133448161558704</c:v>
+                  <c:v>-4.4571853971175841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2447384598757267</c:v>
+                  <c:v>-5.5087765266830075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7177465556659968</c:v>
+                  <c:v>-6.4113212798241337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8753709196157988</c:v>
+                  <c:v>8.2194369936544547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.9620475485804487</c:v>
+                  <c:v>-4.543543996614785</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.7930056336306706</c:v>
+                  <c:v>8.5727210354729451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.3413799644704358</c:v>
+                  <c:v>2.6069786375610953</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.742625546582385</c:v>
+                  <c:v>2.0036628894437243</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.0075984973084449</c:v>
+                  <c:v>-2.219638733701002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.333353674828885</c:v>
+                  <c:v>2.568865786451461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.570708236659776</c:v>
+                  <c:v>5.1515100092539825</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.8462254027891838</c:v>
+                  <c:v>-3.9630714580795656</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5717899807409488</c:v>
+                  <c:v>6.7094181597368348</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.0447708792058297</c:v>
+                  <c:v>6.7155772910909448</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0938543900127939</c:v>
+                  <c:v>-8.6889261123958477</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.6652526934797809</c:v>
+                  <c:v>-2.4356135117745836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.193065753965513</c:v>
+                  <c:v>2.8823516890362058</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.7396015422229123</c:v>
+                  <c:v>5.869794339984665</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.8504340646699493</c:v>
+                  <c:v>8.558082680191049</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.5563085794710005</c:v>
+                  <c:v>3.6536566110692466</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.50986669413980401</c:v>
+                  <c:v>0.45377896356381697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.24261640966571107</c:v>
+                  <c:v>9.7834398893335006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.9304074553934676</c:v>
+                  <c:v>-1.4262116945963292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.2014988414571981</c:v>
+                  <c:v>-9.2896050878444196</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3.5243415840914105</c:v>
+                  <c:v>-9.5712704911017283</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.0344773562181402</c:v>
+                  <c:v>-6.7105313167625198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -265,100 +265,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>23.516836372566999</c:v>
+                  <c:v>-36.348931775224742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7927900537197523</c:v>
+                  <c:v>16.826112139941365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-39.964745723879041</c:v>
+                  <c:v>-30.957989999402947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-30.353108440276458</c:v>
+                  <c:v>-31.3787302226532</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.166626012538096</c:v>
+                  <c:v>-25.992647104177941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-37.422312604455122</c:v>
+                  <c:v>-4.4206129949796829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.035470189791202</c:v>
+                  <c:v>-17.516098221240696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.393674735037003</c:v>
+                  <c:v>-14.596332354918925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.5894989460333768</c:v>
+                  <c:v>-28.133025936301003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.703714798576476</c:v>
+                  <c:v>18.451254976629549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.5080423854717271</c:v>
+                  <c:v>-22.058232018014749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-11.815063330453654</c:v>
+                  <c:v>14.380137150126686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-14.963211243563213</c:v>
+                  <c:v>6.9842940846947776</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2820824770814472</c:v>
+                  <c:v>5.7279111182969586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.0683059129149015</c:v>
+                  <c:v>-11.623975004795764</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.449406423645499</c:v>
+                  <c:v>2.538072058131231</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0863791540935406</c:v>
+                  <c:v>5.169051944279639</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-25.640957704063428</c:v>
+                  <c:v>-17.982244303582014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.7958445188613386</c:v>
+                  <c:v>15.240506987323121</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-26.250613886468429</c:v>
+                  <c:v>15.178482676057291</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.1661960921313863</c:v>
+                  <c:v>-35.90249646870852</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-21.992417135811777</c:v>
+                  <c:v>-9.0881344948484024</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.69834744053311582</c:v>
+                  <c:v>7.5563269610367367</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-31.963842249024765</c:v>
+                  <c:v>5.3021711998670007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-17.519261579906498</c:v>
+                  <c:v>22.612292848383756</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.8546287789354583</c:v>
+                  <c:v>12.089442264706967</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10.856846541179682</c:v>
+                  <c:v>-7.4443975621264489</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-8.338762010397561</c:v>
+                  <c:v>26.715761935747508</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.568059472444205</c:v>
+                  <c:v>-10.116711522812965</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.8368880554364218</c:v>
+                  <c:v>-37.228751217942261</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-19.453280391876987</c:v>
+                  <c:v>-41.364246226299151</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.152451294974313</c:v>
+                  <c:v>-23.218327756788241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,100 +390,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>8.0956983761338428</c:v>
+                  <c:v>-9.3236607823182176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3584709142937363</c:v>
+                  <c:v>7.2284492158691442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.0538699958343933</c:v>
+                  <c:v>-9.5544621066152029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.7182265748940431</c:v>
+                  <c:v>-6.9706693372283368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9200259897714638</c:v>
+                  <c:v>-6.9100130587423862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.3042265832076261</c:v>
+                  <c:v>-1.5297141091051554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.4133448161558704</c:v>
+                  <c:v>-4.4571853971175841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2447384598757267</c:v>
+                  <c:v>-5.5087765266830075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7177465556659968</c:v>
+                  <c:v>-6.4113212798241337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8753709196157988</c:v>
+                  <c:v>8.2194369936544547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.9620475485804487</c:v>
+                  <c:v>-4.543543996614785</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.7930056336306706</c:v>
+                  <c:v>8.5727210354729451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.3413799644704358</c:v>
+                  <c:v>2.6069786375610953</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.742625546582385</c:v>
+                  <c:v>2.0036628894437243</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.0075984973084449</c:v>
+                  <c:v>-2.219638733701002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.333353674828885</c:v>
+                  <c:v>2.568865786451461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.570708236659776</c:v>
+                  <c:v>5.1515100092539825</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.8462254027891838</c:v>
+                  <c:v>-3.9630714580795656</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5717899807409488</c:v>
+                  <c:v>6.7094181597368348</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.0447708792058297</c:v>
+                  <c:v>6.7155772910909448</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0938543900127939</c:v>
+                  <c:v>-8.6889261123958477</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.6652526934797809</c:v>
+                  <c:v>-2.4356135117745836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.193065753965513</c:v>
+                  <c:v>2.8823516890362058</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.7396015422229123</c:v>
+                  <c:v>5.869794339984665</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.8504340646699493</c:v>
+                  <c:v>8.558082680191049</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.5563085794710005</c:v>
+                  <c:v>3.6536566110692466</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.50986669413980401</c:v>
+                  <c:v>0.45377896356381697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.24261640966571107</c:v>
+                  <c:v>9.7834398893335006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.9304074553934676</c:v>
+                  <c:v>-1.4262116945963292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.2014988414571981</c:v>
+                  <c:v>-9.2896050878444196</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3.5243415840914105</c:v>
+                  <c:v>-9.5712704911017283</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.0344773562181402</c:v>
+                  <c:v>-6.7105313167625198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,100 +495,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>19.287095128401528</c:v>
+                  <c:v>-32.970982346954656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.075412742881209</c:v>
+                  <c:v>16.685347647607433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-32.161609987503184</c:v>
+                  <c:v>-33.663386319845607</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31.154679724682129</c:v>
+                  <c:v>-25.91200801168501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.760077969314391</c:v>
+                  <c:v>-25.730039176227159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-32.912679749622882</c:v>
+                  <c:v>-9.5891423273154661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.240034448467611</c:v>
+                  <c:v>-18.371556191352752</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.73421537962718</c:v>
+                  <c:v>-21.526329580049023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1532396669979903</c:v>
+                  <c:v>-24.233963839472402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.626112758847398</c:v>
+                  <c:v>19.658310980963364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-13.886142645741346</c:v>
+                  <c:v>-18.630631989844353</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-10.379016900892012</c:v>
+                  <c:v>20.718163106418835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-12.024139893411308</c:v>
+                  <c:v>2.8209359126832858</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.227876639747155</c:v>
+                  <c:v>1.0109886683311728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-11.022795491925335</c:v>
+                  <c:v>-11.658916201103006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.000061024486655</c:v>
+                  <c:v>2.7065973593543831</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.712124709979328</c:v>
+                  <c:v>10.454530027761948</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-19.538676208367551</c:v>
+                  <c:v>-16.889214374238698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7153699422228463</c:v>
+                  <c:v>15.128254479210504</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-32.134312637617491</c:v>
+                  <c:v>15.146731873272834</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.281563170038382</c:v>
+                  <c:v>-31.066778337187543</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-21.995758080439344</c:v>
+                  <c:v>-12.306840535323751</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.4208027381034611</c:v>
+                  <c:v>3.6470550671086173</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-31.218804626668735</c:v>
+                  <c:v>12.609383019953995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-22.55130219400985</c:v>
+                  <c:v>20.674248040573147</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.6689257384130016</c:v>
+                  <c:v>5.9609698332077397</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.529600082419412</c:v>
+                  <c:v>-3.6386631093085491</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-5.7278492289971332</c:v>
+                  <c:v>24.350319668000502</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.791222366180403</c:v>
+                  <c:v>-9.2786350837889877</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.604496524371594</c:v>
+                  <c:v>-32.868815263533257</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-15.573024752274232</c:v>
+                  <c:v>-33.713811473305185</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.103432068654421</c:v>
+                  <c:v>-25.131593950287559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,100 +849,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>8.0956983761338428</c:v>
+                  <c:v>-9.3236607823182176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3584709142937363</c:v>
+                  <c:v>7.2284492158691442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.0538699958343933</c:v>
+                  <c:v>-9.5544621066152029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.7182265748940431</c:v>
+                  <c:v>-6.9706693372283368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9200259897714638</c:v>
+                  <c:v>-6.9100130587423862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.3042265832076261</c:v>
+                  <c:v>-1.5297141091051554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.4133448161558704</c:v>
+                  <c:v>-4.4571853971175841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2447384598757267</c:v>
+                  <c:v>-5.5087765266830075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7177465556659968</c:v>
+                  <c:v>-6.4113212798241337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8753709196157988</c:v>
+                  <c:v>8.2194369936544547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.9620475485804487</c:v>
+                  <c:v>-4.543543996614785</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.7930056336306706</c:v>
+                  <c:v>8.5727210354729451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.3413799644704358</c:v>
+                  <c:v>2.6069786375610953</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.742625546582385</c:v>
+                  <c:v>2.0036628894437243</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.0075984973084449</c:v>
+                  <c:v>-2.219638733701002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.333353674828885</c:v>
+                  <c:v>2.568865786451461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.570708236659776</c:v>
+                  <c:v>5.1515100092539825</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.8462254027891838</c:v>
+                  <c:v>-3.9630714580795656</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5717899807409488</c:v>
+                  <c:v>6.7094181597368348</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.0447708792058297</c:v>
+                  <c:v>6.7155772910909448</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0938543900127939</c:v>
+                  <c:v>-8.6889261123958477</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.6652526934797809</c:v>
+                  <c:v>-2.4356135117745836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.193065753965513</c:v>
+                  <c:v>2.8823516890362058</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.7396015422229123</c:v>
+                  <c:v>5.869794339984665</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.8504340646699493</c:v>
+                  <c:v>8.558082680191049</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.5563085794710005</c:v>
+                  <c:v>3.6536566110692466</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.50986669413980401</c:v>
+                  <c:v>0.45377896356381697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.24261640966571107</c:v>
+                  <c:v>9.7834398893335006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.9304074553934676</c:v>
+                  <c:v>-1.4262116945963292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.2014988414571981</c:v>
+                  <c:v>-9.2896050878444196</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3.5243415840914105</c:v>
+                  <c:v>-9.5712704911017283</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.0344773562181402</c:v>
+                  <c:v>-6.7105313167625198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,100 +954,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>23.516836372566999</c:v>
+                  <c:v>-36.348931775224742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7927900537197523</c:v>
+                  <c:v>16.826112139941365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-39.964745723879041</c:v>
+                  <c:v>-30.957989999402947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-30.353108440276458</c:v>
+                  <c:v>-31.3787302226532</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.166626012538096</c:v>
+                  <c:v>-25.992647104177941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-37.422312604455122</c:v>
+                  <c:v>-4.4206129949796829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.035470189791202</c:v>
+                  <c:v>-17.516098221240696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.393674735037003</c:v>
+                  <c:v>-14.596332354918925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.5894989460333768</c:v>
+                  <c:v>-28.133025936301003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.703714798576476</c:v>
+                  <c:v>18.451254976629549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.5080423854717271</c:v>
+                  <c:v>-22.058232018014749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-11.815063330453654</c:v>
+                  <c:v>14.380137150126686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-14.963211243563213</c:v>
+                  <c:v>6.9842940846947776</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2820824770814472</c:v>
+                  <c:v>5.7279111182969586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.0683059129149015</c:v>
+                  <c:v>-11.623975004795764</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.449406423645499</c:v>
+                  <c:v>2.538072058131231</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0863791540935406</c:v>
+                  <c:v>5.169051944279639</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-25.640957704063428</c:v>
+                  <c:v>-17.982244303582014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.7958445188613386</c:v>
+                  <c:v>15.240506987323121</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-26.250613886468429</c:v>
+                  <c:v>15.178482676057291</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.1661960921313863</c:v>
+                  <c:v>-35.90249646870852</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-21.992417135811777</c:v>
+                  <c:v>-9.0881344948484024</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.69834744053311582</c:v>
+                  <c:v>7.5563269610367367</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-31.963842249024765</c:v>
+                  <c:v>5.3021711998670007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-17.519261579906498</c:v>
+                  <c:v>22.612292848383756</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.8546287789354583</c:v>
+                  <c:v>12.089442264706967</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10.856846541179682</c:v>
+                  <c:v>-7.4443975621264489</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-8.338762010397561</c:v>
+                  <c:v>26.715761935747508</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.568059472444205</c:v>
+                  <c:v>-10.116711522812965</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.8368880554364218</c:v>
+                  <c:v>-37.228751217942261</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-19.453280391876987</c:v>
+                  <c:v>-41.364246226299151</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.152451294974313</c:v>
+                  <c:v>-23.218327756788241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2695,7 +2695,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,30 +2737,30 @@
       </c>
       <c r="C4">
         <f ca="1">RAND() * 20 - 10</f>
-        <v>8.0956983761338428</v>
+        <v>-9.3236607823182176</v>
       </c>
       <c r="D4">
         <f ca="1">E4+(RAND() * 16-8)</f>
-        <v>23.516836372566999</v>
+        <v>-36.348931775224742</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E17" ca="1" si="0">A4*C4+B4</f>
-        <v>19.287095128401528</v>
+        <v>-32.970982346954656</v>
       </c>
       <c r="G4">
         <f ca="1">C4*C4</f>
-        <v>65.540332197336141</v>
+        <v>86.930650383738751</v>
       </c>
       <c r="H4">
         <f ca="1">C4*D4</f>
-        <v>190.38521403319595</v>
+        <v>338.90510967182342</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4">
         <f ca="1">SUM(C4:C35)</f>
-        <v>12.423332146340158</v>
+        <v>-18.53649080879174</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2772,30 +2772,30 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C35" ca="1" si="1">RAND() * 20 - 10</f>
-        <v>6.3584709142937363</v>
+        <v>7.2284492158691442</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D35" ca="1" si="2">E5+(RAND() * 16-8)</f>
-        <v>9.7927900537197523</v>
+        <v>16.826112139941365</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>14.075412742881209</v>
+        <v>16.685347647607433</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G25" ca="1" si="3">C5*C5</f>
-        <v>40.430152367919426</v>
+        <v>52.250478066399246</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H25" ca="1" si="4">C5*D5</f>
-        <v>62.267170726362039</v>
+        <v>121.62669710408545</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5">
         <f ca="1">SUM(G4:G35)</f>
-        <v>1167.8951544611627</v>
+        <v>1268.5311622259285</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2807,30 +2807,30 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.0538699958343933</v>
+        <v>-9.5544621066152029</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>-39.964745723879041</v>
+        <v>-30.957989999402947</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.161609987503184</v>
+        <v>-33.663386319845607</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>81.972561901470272</v>
+        <v>91.287746146745818</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="4"/>
-        <v>361.83561220057931</v>
+        <v>295.78694234626789</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
       </c>
       <c r="L6">
         <f ca="1">SUM(D4:D35)</f>
-        <v>-127.27181459499285</v>
+        <v>-230.60006683959506</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2842,30 +2842,30 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.7182265748940431</v>
+        <v>-6.9706693372283368</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>-30.353108440276458</v>
+        <v>-31.3787302226532</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.154679724682129</v>
+        <v>-25.91200801168501</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>76.007474611188712</v>
+        <v>48.590231008975337</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="4"/>
-        <v>264.62527663465892</v>
+        <v>218.73075260420876</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
       </c>
       <c r="L7">
         <f ca="1">SUM(H4:H35)</f>
-        <v>3577.1130489389334</v>
+        <v>4034.1753591963957</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2877,23 +2877,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9200259897714638</v>
+        <v>-6.9100130587423862</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>26.166626012538096</v>
+        <v>-25.992647104177941</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>21.760077969314391</v>
+        <v>-25.730039176227159</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>79.566863658198386</v>
+        <v>47.748280471990306</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="4"/>
-        <v>233.40698409646987</v>
+        <v>179.60953092115204</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -2912,23 +2912,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3042265832076261</v>
+        <v>-1.5297141091051554</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>-37.422312604455122</v>
+        <v>-4.4206129949796829</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.912679749622882</v>
+        <v>-9.5891423273154661</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>86.568632311667457</v>
+        <v>2.3400252555953793</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="4"/>
-        <v>348.18567573947718</v>
+        <v>6.7622740693140182</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2940,23 +2940,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4133448161558704</v>
+        <v>-4.4571853971175841</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>-18.035470189791202</v>
+        <v>-17.516098221240696</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.240034448467611</v>
+        <v>-18.371556191352752</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>19.477612466289894</v>
+        <v>19.866501664278235</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="4"/>
-        <v>79.596748869048724</v>
+        <v>78.072497206191315</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2968,30 +2968,30 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2447384598757267</v>
+        <v>-5.5087765266830075</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>24.393674735037003</v>
+        <v>-14.596332354918925</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>22.73421537962718</v>
+        <v>-21.526329580049023</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>85.465189191505431</v>
+        <v>30.346618820933699</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>225.51314300069541</v>
+        <v>80.407933052441081</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
       </c>
       <c r="L11">
         <f ca="1">(L8*L7-L4*L6)/(L8*L5-L4*L4)</f>
-        <v>3.118055892613949</v>
+        <v>3.1011420992752359</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3003,30 +3003,30 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7177465556659968</v>
+        <v>-6.4113212798241337</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.5894989460333768</v>
+        <v>-28.133025936301003</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1532396669979903</v>
+        <v>-24.233963839472402</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3861463408343893</v>
+        <v>41.105040553125768</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>-12.473094952814932</v>
+        <v>180.36986785125089</v>
       </c>
       <c r="K12" t="s">
         <v>3</v>
       </c>
       <c r="L12">
         <f ca="1">(L6*L5-L7*L4)/(L8*L5-L4*L4)</f>
-        <v>-5.1877643312434092</v>
+        <v>-5.4098679631132045</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3038,23 +3038,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8753709196157988</v>
+        <v>8.2194369936544547</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>15.703714798576476</v>
+        <v>18.451254976629549</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.626112758847398</v>
+        <v>19.658310980963364</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>34.519983443066998</v>
+        <v>67.559144492655378</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>92.265149257496503</v>
+        <v>151.65892773425978</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,23 +3066,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9620475485804487</v>
+        <v>-4.543543996614785</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.5080423854717271</v>
+        <v>-22.058232018014749</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.886142645741346</v>
+        <v>-18.630631989844353</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7737256800514452</v>
+        <v>20.643792049174255</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
-        <v>22.239178542524634</v>
+        <v>100.22254766138695</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3094,23 +3094,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7930056336306706</v>
+        <v>8.5727210354729451</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>-11.815063330453654</v>
+        <v>14.380137150126686</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.379016900892012</v>
+        <v>20.718163106418835</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2148692022313226</v>
+        <v>73.491545952040326</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>21.184475113206556</v>
+        <v>123.27690423987701</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3122,23 +3122,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3413799644704358</v>
+        <v>2.6069786375610953</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>-14.963211243563213</v>
+        <v>6.9842940846947776</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.024139893411308</v>
+        <v>2.8209359126832858</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4820601380235789</v>
+        <v>6.7963376166999048</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="4"/>
-        <v>35.03456300981766</v>
+        <v>18.207905477243607</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3150,23 +3150,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.742625546582385</v>
+        <v>2.0036628894437243</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2820824770814472</v>
+        <v>5.7279111182969586</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.227876639747155</v>
+        <v>1.0109886683311728</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>22.492497075095866</v>
+        <v>4.0146649745339742</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="4"/>
-        <v>10.823062655214482</v>
+        <v>11.476802941763719</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3178,23 +3178,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0075984973084449</v>
+        <v>-2.219638733701002</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.0683059129149015</v>
+        <v>-11.623975004795764</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:E25" ca="1" si="5">A18*C18+B18</f>
-        <v>-11.022795491925335</v>
+        <v>-11.658916201103006</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0304517263951256</v>
+        <v>4.9267961081457878</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="4"/>
-        <v>10.175123334667463</v>
+        <v>25.801025160216966</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3206,23 +3206,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.333353674828885</v>
+        <v>2.568865786451461</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>28.449406423645499</v>
+        <v>2.538072058131231</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="5"/>
-        <v>23.000061024486655</v>
+        <v>2.7065973593543831</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>87.111490819441855</v>
+        <v>6.5990714288008832</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="4"/>
-        <v>265.52837199083223</v>
+        <v>6.5199664736817633</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,23 +3234,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.570708236659776</v>
+        <v>5.1515100092539825</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0863791540935406</v>
+        <v>5.169051944279639</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="5"/>
-        <v>2.712124709979328</v>
+        <v>10.454530027761948</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6085408380304145</v>
+        <v>26.538055375443967</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9341803128832966</v>
+        <v>26.62842282931032</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3262,23 +3262,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8462254027891838</v>
+        <v>-3.9630714580795656</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>-25.640957704063428</v>
+        <v>-17.982244303582014</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="5"/>
-        <v>-19.538676208367551</v>
+        <v>-16.889214374238698</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>23.485900654639188</v>
+        <v>15.705935381844894</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="4"/>
-        <v>124.26186057727521</v>
+        <v>71.264919151739733</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3290,23 +3290,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5717899807409488</v>
+        <v>6.7094181597368348</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7958445188613386</v>
+        <v>15.240506987323121</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7153699422228463</v>
+        <v>15.128254479210504</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6141037050395299</v>
+        <v>45.016292042206416</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="4"/>
-        <v>20.049274825021833</v>
+        <v>102.25493434434186</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3318,23 +3318,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.0447708792058297</v>
+        <v>6.7155772910909448</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>-26.250613886468429</v>
+        <v>15.178482676057291</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="5"/>
-        <v>-32.134312637617491</v>
+        <v>15.146731873272834</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>81.807880257329799</v>
+        <v>45.098978352616392</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="4"/>
-        <v>237.43078804160581</v>
+        <v>101.93227357254766</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3346,23 +3346,23 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0938543900127939</v>
+        <v>-8.6889261123958477</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1661960921313863</v>
+        <v>-35.90249646870852</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="5"/>
-        <v>10.281563170038382</v>
+        <v>-31.066778337187543</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>25.947352546652613</v>
+        <v>75.497436986674415</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="4"/>
-        <v>41.597413813608782</v>
+        <v>311.95413906716118</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3374,23 +3374,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6652526934797809</v>
+        <v>-2.4356135117745836</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>-21.992417135811777</v>
+        <v>-9.0881344948484024</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="5"/>
-        <v>-21.995758080439344</v>
+        <v>-12.306840535323751</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>32.095088080979913</v>
+        <v>5.9322131787389196</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="4"/>
-        <v>124.59260041478856</v>
+        <v>22.135183172477451</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3402,23 +3402,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.193065753965513</v>
+        <v>2.8823516890362058</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69834744053311582</v>
+        <v>7.5563269610367367</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26:E35" ca="1" si="6">A26*C26+B26</f>
-        <v>-1.4208027381034611</v>
+        <v>3.6470550671086173</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:G35" ca="1" si="7">C26*C26</f>
-        <v>1.423405893285298</v>
+        <v>8.3079512592898688</v>
       </c>
       <c r="H26">
         <f t="shared" ref="H26:H35" ca="1" si="8">C26*D26</f>
-        <v>0.83317441566952799</v>
+        <v>21.779991779054058</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3430,23 +3430,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.7396015422229123</v>
+        <v>5.869794339984665</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>-31.963842249024765</v>
+        <v>5.3021711998670007</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>-31.218804626668735</v>
+        <v>12.609383019953995</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>76.380635116825104</v>
+        <v>34.454485593716008</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="8"/>
-        <v>279.3512450149467</v>
+        <v>31.12265449860902</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3458,23 +3458,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8504340646699493</v>
+        <v>8.558082680191049</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>-17.519261579906498</v>
+        <v>22.612292848383756</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="6"/>
-        <v>-22.55130219400985</v>
+        <v>20.674248040573147</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>34.227578745050543</v>
+        <v>73.240779160986008</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="8"/>
-        <v>102.49528473494846</v>
+        <v>193.51787178516093</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3486,23 +3486,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5563085794710005</v>
+        <v>3.6536566110692466</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8546287789354583</v>
+        <v>12.089442264706967</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6689257384130016</v>
+        <v>5.9609698332077397</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>20.759947871361046</v>
+        <v>13.349206631610011</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="8"/>
-        <v>44.90072965296546</v>
+        <v>44.170670654586573</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3514,23 +3514,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.50986669413980401</v>
+        <v>0.45377896356381697</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>-10.856846541179682</v>
+        <v>-7.4443975621264489</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.529600082419412</v>
+        <v>-3.6386631093085491</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25996404579305243</v>
+        <v>0.20591534777305193</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5355444547344499</v>
+        <v>-3.3781110100987459</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3542,23 +3542,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24261640966571107</v>
+        <v>9.7834398893335006</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.338762010397561</v>
+        <v>26.715761935747508</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.7278492289971332</v>
+        <v>24.350319668000502</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>5.8862722239080144E-2</v>
+        <v>95.715696068201893</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0231205000194832</v>
+        <v>261.37205099612976</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3570,23 +3570,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9304074553934676</v>
+        <v>-1.4262116945963292</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>19.568059472444205</v>
+        <v>-10.116711522812965</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="6"/>
-        <v>18.791222366180403</v>
+        <v>-9.2786350837889877</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>62.89136240856029</v>
+        <v>2.0340797978033329</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="8"/>
-        <v>155.18268472785428</v>
+        <v>14.428572284693288</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3598,23 +3598,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2014988414571981</v>
+        <v>-9.2896050878444196</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8368880554364218</v>
+        <v>-37.228751217942261</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="6"/>
-        <v>13.604496524371594</v>
+        <v>-32.868815263533257</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>38.458587880594969</v>
+        <v>86.296762688104934</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="8"/>
-        <v>36.197454513504326</v>
+        <v>345.84039672829056</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3626,23 +3626,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5243415840914105</v>
+        <v>-9.5712704911017283</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>-19.453280391876987</v>
+        <v>-41.364246226299151</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="6"/>
-        <v>-15.573024752274232</v>
+        <v>-33.713811473305185</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>12.420983601355953</v>
+        <v>91.609218813834715</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="8"/>
-        <v>68.560005032082117</v>
+        <v>395.90838929244308</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3654,23 +3654,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0344773562181402</v>
+        <v>-6.7105313167625198</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>19.152451294974313</v>
+        <v>-23.218327756788241</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="6"/>
-        <v>13.103432068654421</v>
+        <v>-25.131593950287559</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>36.414916962709476</v>
+        <v>45.031230553250516</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="8"/>
-        <v>115.57503365559329</v>
+        <v>155.80731553478395</v>
       </c>
     </row>
   </sheetData>

--- a/sphinx-book/source/supervised/supervised/figures/linerexample.xlsx
+++ b/sphinx-book/source/supervised/supervised/figures/linerexample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="9360" windowHeight="3480"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5085" windowHeight="3480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>y = a x + b</t>
   </si>
@@ -54,18 +54,27 @@
   <si>
     <t>xy</t>
   </si>
+  <si>
+    <t>Polynomial fit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,8 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,100 +172,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-9.3236607823182176</c:v>
+                  <c:v>7.1574122510237785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2284492158691442</c:v>
+                  <c:v>-8.8526747907185523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.5544621066152029</c:v>
+                  <c:v>8.223119466725521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.9706693372283368</c:v>
+                  <c:v>-4.4576450893014012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.9100130587423862</c:v>
+                  <c:v>-4.9431421399583435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5297141091051554</c:v>
+                  <c:v>-6.8481291640642645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.4571853971175841</c:v>
+                  <c:v>-3.1906163490400026</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.5087765266830075</c:v>
+                  <c:v>-4.266649245872836</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.4113212798241337</c:v>
+                  <c:v>-9.2916219010938264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2194369936544547</c:v>
+                  <c:v>5.8114812169519059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.543543996614785</c:v>
+                  <c:v>6.9399844649020217</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5727210354729451</c:v>
+                  <c:v>-9.0556068583314016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6069786375610953</c:v>
+                  <c:v>6.3635576239809524</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0036628894437243</c:v>
+                  <c:v>2.2119392729155418</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.219638733701002</c:v>
+                  <c:v>-0.84757964723530144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.568865786451461</c:v>
+                  <c:v>8.5782519459652953</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1515100092539825</c:v>
+                  <c:v>1.9603926335276878</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.9630714580795656</c:v>
+                  <c:v>-6.9773734390846283</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7094181597368348</c:v>
+                  <c:v>-4.1675055356288464</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7155772910909448</c:v>
+                  <c:v>-1.0129186378080597</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.6889261123958477</c:v>
+                  <c:v>2.0789459600980731</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.4356135117745836</c:v>
+                  <c:v>9.4944791900789163</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.8823516890362058</c:v>
+                  <c:v>-2.2383422014928627</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.869794339984665</c:v>
+                  <c:v>-1.2414376528740014</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.558082680191049</c:v>
+                  <c:v>-0.10198819012736493</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6536566110692466</c:v>
+                  <c:v>-1.688096522063594</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.45377896356381697</c:v>
+                  <c:v>2.3499227135666505</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.7834398893335006</c:v>
+                  <c:v>2.3657170006659243</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.4262116945963292</c:v>
+                  <c:v>1.8465383515446927</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-9.2896050878444196</c:v>
+                  <c:v>-2.5238352979665084</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.5712704911017283</c:v>
+                  <c:v>-6.1645202324407</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.7105313167625198</c:v>
+                  <c:v>-2.617413484690716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -265,100 +277,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-36.348931775224742</c:v>
+                  <c:v>14.605666665177367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.826112139941365</c:v>
+                  <c:v>-27.908612748768967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-30.957989999402947</c:v>
+                  <c:v>14.730063945040733</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31.3787302226532</c:v>
+                  <c:v>-22.17276158667703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-25.992647104177941</c:v>
+                  <c:v>-20.528468084246661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.4206129949796829</c:v>
+                  <c:v>-29.366607025920644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-17.516098221240696</c:v>
+                  <c:v>-21.484908466093522</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-14.596332354918925</c:v>
+                  <c:v>-21.436139155934576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-28.133025936301003</c:v>
+                  <c:v>-31.940132250486947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.451254976629549</c:v>
+                  <c:v>10.525252030994645</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-22.058232018014749</c:v>
+                  <c:v>14.606213434157812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.380137150126686</c:v>
+                  <c:v>-25.135003214557585</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9842940846947776</c:v>
+                  <c:v>19.004748258123662</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7279111182969586</c:v>
+                  <c:v>-1.8057596938164195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-11.623975004795764</c:v>
+                  <c:v>-2.2853289556925063</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.538072058131231</c:v>
+                  <c:v>17.431965936956782</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.169051944279639</c:v>
+                  <c:v>-4.4549286819138523</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-17.982244303582014</c:v>
+                  <c:v>-32.105668761006498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.240506987323121</c:v>
+                  <c:v>-10.580579779754974</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.178482676057291</c:v>
+                  <c:v>-9.9526358474643697</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-35.90249646870852</c:v>
+                  <c:v>4.0790132535405821</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-9.0881344948484024</c:v>
+                  <c:v>23.741324715510878</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.5563269610367367</c:v>
+                  <c:v>-4.7636500592962623</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3021711998670007</c:v>
+                  <c:v>-15.985362465535779</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.612292848383756</c:v>
+                  <c:v>-6.5777509223545678</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.089442264706967</c:v>
+                  <c:v>-9.5768668894434406</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-7.4443975621264489</c:v>
+                  <c:v>-0.80344829501114212</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.715761935747508</c:v>
+                  <c:v>-3.893189612881061</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-10.116711522812965</c:v>
+                  <c:v>-7.0977408307737679</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-37.228751217942261</c:v>
+                  <c:v>-10.933435043650398</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-41.364246226299151</c:v>
+                  <c:v>-26.072667735500161</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-23.218327756788241</c:v>
+                  <c:v>-11.924919106199868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,100 +402,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-9.3236607823182176</c:v>
+                  <c:v>7.1574122510237785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2284492158691442</c:v>
+                  <c:v>-8.8526747907185523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.5544621066152029</c:v>
+                  <c:v>8.223119466725521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.9706693372283368</c:v>
+                  <c:v>-4.4576450893014012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.9100130587423862</c:v>
+                  <c:v>-4.9431421399583435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5297141091051554</c:v>
+                  <c:v>-6.8481291640642645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.4571853971175841</c:v>
+                  <c:v>-3.1906163490400026</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.5087765266830075</c:v>
+                  <c:v>-4.266649245872836</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.4113212798241337</c:v>
+                  <c:v>-9.2916219010938264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2194369936544547</c:v>
+                  <c:v>5.8114812169519059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.543543996614785</c:v>
+                  <c:v>6.9399844649020217</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5727210354729451</c:v>
+                  <c:v>-9.0556068583314016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6069786375610953</c:v>
+                  <c:v>6.3635576239809524</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0036628894437243</c:v>
+                  <c:v>2.2119392729155418</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.219638733701002</c:v>
+                  <c:v>-0.84757964723530144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.568865786451461</c:v>
+                  <c:v>8.5782519459652953</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1515100092539825</c:v>
+                  <c:v>1.9603926335276878</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.9630714580795656</c:v>
+                  <c:v>-6.9773734390846283</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7094181597368348</c:v>
+                  <c:v>-4.1675055356288464</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7155772910909448</c:v>
+                  <c:v>-1.0129186378080597</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.6889261123958477</c:v>
+                  <c:v>2.0789459600980731</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.4356135117745836</c:v>
+                  <c:v>9.4944791900789163</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.8823516890362058</c:v>
+                  <c:v>-2.2383422014928627</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.869794339984665</c:v>
+                  <c:v>-1.2414376528740014</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.558082680191049</c:v>
+                  <c:v>-0.10198819012736493</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6536566110692466</c:v>
+                  <c:v>-1.688096522063594</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.45377896356381697</c:v>
+                  <c:v>2.3499227135666505</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.7834398893335006</c:v>
+                  <c:v>2.3657170006659243</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.4262116945963292</c:v>
+                  <c:v>1.8465383515446927</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-9.2896050878444196</c:v>
+                  <c:v>-2.5238352979665084</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.5712704911017283</c:v>
+                  <c:v>-6.1645202324407</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.7105313167625198</c:v>
+                  <c:v>-2.617413484690716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,100 +507,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-32.970982346954656</c:v>
+                  <c:v>16.472236753071336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.685347647607433</c:v>
+                  <c:v>-31.558024372155657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-33.663386319845607</c:v>
+                  <c:v>19.669358400176563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25.91200801168501</c:v>
+                  <c:v>-18.372935267904204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-25.730039176227159</c:v>
+                  <c:v>-19.829426419875031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.5891423273154661</c:v>
+                  <c:v>-25.544387492192794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.371556191352752</c:v>
+                  <c:v>-14.571849047120008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-21.526329580049023</c:v>
+                  <c:v>-17.79994773761851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-24.233963839472402</c:v>
+                  <c:v>-32.874865703281479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.658310980963364</c:v>
+                  <c:v>12.434443650855719</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-18.630631989844353</c:v>
+                  <c:v>15.819953394706065</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.718163106418835</c:v>
+                  <c:v>-32.166820574994205</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8209359126832858</c:v>
+                  <c:v>14.090672871942857</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0109886683311728</c:v>
+                  <c:v>1.6358178187466255</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-11.658916201103006</c:v>
+                  <c:v>-7.5427389417059043</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7065973593543831</c:v>
+                  <c:v>20.734755837895886</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.454530027761948</c:v>
+                  <c:v>0.88117790058306333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-16.889214374238698</c:v>
+                  <c:v>-25.932120317253883</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.128254479210504</c:v>
+                  <c:v>-17.502516606886537</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.146731873272834</c:v>
+                  <c:v>-8.0387559134241791</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-31.066778337187543</c:v>
+                  <c:v>1.2368378802942193</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-12.306840535323751</c:v>
+                  <c:v>23.483437570236749</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.6470550671086173</c:v>
+                  <c:v>-11.715026604478588</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.609383019953995</c:v>
+                  <c:v>-8.7243129586220043</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.674248040573147</c:v>
+                  <c:v>-5.3059645703820948</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.9609698332077397</c:v>
+                  <c:v>-10.064289566190782</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3.6386631093085491</c:v>
+                  <c:v>2.0497681406999515</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.350319668000502</c:v>
+                  <c:v>2.0971510019977728</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-9.2786350837889877</c:v>
+                  <c:v>0.53961505463407811</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-32.868815263533257</c:v>
+                  <c:v>-12.571505893899525</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-33.713811473305185</c:v>
+                  <c:v>-23.493560697322099</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-25.131593950287559</c:v>
+                  <c:v>-12.852240454072149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,11 +615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115833072"/>
-        <c:axId val="115833632"/>
+        <c:axId val="133371360"/>
+        <c:axId val="133371920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115833072"/>
+        <c:axId val="133371360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -663,12 +675,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115833632"/>
+        <c:crossAx val="133371920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115833632"/>
+        <c:axId val="133371920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115833072"/>
+        <c:crossAx val="133371360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -849,100 +861,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-9.3236607823182176</c:v>
+                  <c:v>7.1574122510237785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2284492158691442</c:v>
+                  <c:v>-8.8526747907185523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.5544621066152029</c:v>
+                  <c:v>8.223119466725521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.9706693372283368</c:v>
+                  <c:v>-4.4576450893014012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.9100130587423862</c:v>
+                  <c:v>-4.9431421399583435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5297141091051554</c:v>
+                  <c:v>-6.8481291640642645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.4571853971175841</c:v>
+                  <c:v>-3.1906163490400026</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.5087765266830075</c:v>
+                  <c:v>-4.266649245872836</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.4113212798241337</c:v>
+                  <c:v>-9.2916219010938264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2194369936544547</c:v>
+                  <c:v>5.8114812169519059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.543543996614785</c:v>
+                  <c:v>6.9399844649020217</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5727210354729451</c:v>
+                  <c:v>-9.0556068583314016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6069786375610953</c:v>
+                  <c:v>6.3635576239809524</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0036628894437243</c:v>
+                  <c:v>2.2119392729155418</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.219638733701002</c:v>
+                  <c:v>-0.84757964723530144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.568865786451461</c:v>
+                  <c:v>8.5782519459652953</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1515100092539825</c:v>
+                  <c:v>1.9603926335276878</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.9630714580795656</c:v>
+                  <c:v>-6.9773734390846283</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7094181597368348</c:v>
+                  <c:v>-4.1675055356288464</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7155772910909448</c:v>
+                  <c:v>-1.0129186378080597</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.6889261123958477</c:v>
+                  <c:v>2.0789459600980731</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.4356135117745836</c:v>
+                  <c:v>9.4944791900789163</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.8823516890362058</c:v>
+                  <c:v>-2.2383422014928627</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.869794339984665</c:v>
+                  <c:v>-1.2414376528740014</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.558082680191049</c:v>
+                  <c:v>-0.10198819012736493</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.6536566110692466</c:v>
+                  <c:v>-1.688096522063594</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.45377896356381697</c:v>
+                  <c:v>2.3499227135666505</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.7834398893335006</c:v>
+                  <c:v>2.3657170006659243</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.4262116945963292</c:v>
+                  <c:v>1.8465383515446927</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-9.2896050878444196</c:v>
+                  <c:v>-2.5238352979665084</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.5712704911017283</c:v>
+                  <c:v>-6.1645202324407</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.7105313167625198</c:v>
+                  <c:v>-2.617413484690716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,100 +966,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-36.348931775224742</c:v>
+                  <c:v>14.605666665177367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.826112139941365</c:v>
+                  <c:v>-27.908612748768967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-30.957989999402947</c:v>
+                  <c:v>14.730063945040733</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31.3787302226532</c:v>
+                  <c:v>-22.17276158667703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-25.992647104177941</c:v>
+                  <c:v>-20.528468084246661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.4206129949796829</c:v>
+                  <c:v>-29.366607025920644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-17.516098221240696</c:v>
+                  <c:v>-21.484908466093522</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-14.596332354918925</c:v>
+                  <c:v>-21.436139155934576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-28.133025936301003</c:v>
+                  <c:v>-31.940132250486947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.451254976629549</c:v>
+                  <c:v>10.525252030994645</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-22.058232018014749</c:v>
+                  <c:v>14.606213434157812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.380137150126686</c:v>
+                  <c:v>-25.135003214557585</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9842940846947776</c:v>
+                  <c:v>19.004748258123662</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7279111182969586</c:v>
+                  <c:v>-1.8057596938164195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-11.623975004795764</c:v>
+                  <c:v>-2.2853289556925063</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.538072058131231</c:v>
+                  <c:v>17.431965936956782</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.169051944279639</c:v>
+                  <c:v>-4.4549286819138523</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-17.982244303582014</c:v>
+                  <c:v>-32.105668761006498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.240506987323121</c:v>
+                  <c:v>-10.580579779754974</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.178482676057291</c:v>
+                  <c:v>-9.9526358474643697</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-35.90249646870852</c:v>
+                  <c:v>4.0790132535405821</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-9.0881344948484024</c:v>
+                  <c:v>23.741324715510878</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.5563269610367367</c:v>
+                  <c:v>-4.7636500592962623</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3021711998670007</c:v>
+                  <c:v>-15.985362465535779</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.612292848383756</c:v>
+                  <c:v>-6.5777509223545678</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.089442264706967</c:v>
+                  <c:v>-9.5768668894434406</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-7.4443975621264489</c:v>
+                  <c:v>-0.80344829501114212</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.715761935747508</c:v>
+                  <c:v>-3.893189612881061</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-10.116711522812965</c:v>
+                  <c:v>-7.0977408307737679</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-37.228751217942261</c:v>
+                  <c:v>-10.933435043650398</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-41.364246226299151</c:v>
+                  <c:v>-26.072667735500161</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-23.218327756788241</c:v>
+                  <c:v>-11.924919106199868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1062,11 +1074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283937296"/>
-        <c:axId val="283937856"/>
+        <c:axId val="133374160"/>
+        <c:axId val="133374720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283937296"/>
+        <c:axId val="133374160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1122,12 +1134,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283937856"/>
+        <c:crossAx val="133374720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283937856"/>
+        <c:axId val="133374720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,7 +1193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283937296"/>
+        <c:crossAx val="133374160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -1203,6 +1215,735 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-19.259808670923363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3260609977647491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.775035163142988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.81663072687266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4754093480302615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.32656777377038182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-18.262214478351254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.864633648780103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16.062085680916603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.049006063110028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-16.666347288198299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$43:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-62.495498022258133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.690873339537625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.664911976706804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.106918130806548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9816173578735992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2088693411179499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-56.130383101563375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-36.341542332162746</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-56.894069657073459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.092864802601355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-51.923186973340123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245719856"/>
+        <c:axId val="245713136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="245719856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245713136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="245713136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245719856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$58:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.252876555727781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.86016997602003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.6859424435578276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.028149899589124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.929366096983664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-19.585719069075758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.9369714147063899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0707211680082125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7961189091998193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.928550088625371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.365180519622598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$58:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>40.892772941453991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45.390614008409372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-22.805992953798295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.832118452475449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30.879551173313487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60.713038290978012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-32.676894035786589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.1867703107329337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.732948495556933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-43.922563512114813</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.794742995300382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$58:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.252876555727781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.86016997602003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.6859424435578276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.028149899589124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.929366096983664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-19.585719069075758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.9369714147063899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0707211680082125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7961189091998193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.928550088625371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.365180519622598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$58:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>34.758629667183342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-49.580509928060088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-22.057827330673483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.084449698767372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-37.788098290950991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-63.757157207227273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-25.810914244119168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.2121635040246375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.388356727599458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-40.785650265876114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.095541558867794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309491408"/>
+        <c:axId val="309497568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309491408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309497568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="309497568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309491408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
     </a:ln>
@@ -1306,6 +2047,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1823,6 +2644,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2397,6 +4250,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2692,13 +4605,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
@@ -2737,30 +4653,30 @@
       </c>
       <c r="C4">
         <f ca="1">RAND() * 20 - 10</f>
-        <v>-9.3236607823182176</v>
+        <v>7.1574122510237785</v>
       </c>
       <c r="D4">
         <f ca="1">E4+(RAND() * 16-8)</f>
-        <v>-36.348931775224742</v>
+        <v>14.605666665177367</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E17" ca="1" si="0">A4*C4+B4</f>
-        <v>-32.970982346954656</v>
+        <v>16.472236753071336</v>
       </c>
       <c r="G4">
         <f ca="1">C4*C4</f>
-        <v>86.930650383738751</v>
+        <v>51.228550131105273</v>
       </c>
       <c r="H4">
         <f ca="1">C4*D4</f>
-        <v>338.90510967182342</v>
+        <v>104.5387775237101</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4">
         <f ca="1">SUM(C4:C35)</f>
-        <v>-18.53649080879174</v>
+        <v>-15.105354287846254</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2772,30 +4688,30 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C35" ca="1" si="1">RAND() * 20 - 10</f>
-        <v>7.2284492158691442</v>
+        <v>-8.8526747907185523</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D35" ca="1" si="2">E5+(RAND() * 16-8)</f>
-        <v>16.826112139941365</v>
+        <v>-27.908612748768967</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>16.685347647607433</v>
+        <v>-31.558024372155657</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G25" ca="1" si="3">C5*C5</f>
-        <v>52.250478066399246</v>
+        <v>78.369850950223764</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H25" ca="1" si="4">C5*D5</f>
-        <v>121.62669710408545</v>
+        <v>247.06587252495342</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5">
         <f ca="1">SUM(G4:G35)</f>
-        <v>1268.5311622259285</v>
+        <v>927.3217577282785</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2807,30 +4723,30 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5544621066152029</v>
+        <v>8.223119466725521</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>-30.957989999402947</v>
+        <v>14.730063945040733</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.663386319845607</v>
+        <v>19.669358400176563</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>91.287746146745818</v>
+        <v>67.619693764040221</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="4"/>
-        <v>295.78694234626789</v>
+        <v>121.12707557257617</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
       </c>
       <c r="L6">
         <f ca="1">SUM(D4:D35)</f>
-        <v>-230.60006683959506</v>
+        <v>-240.06231697347857</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2842,30 +4758,30 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9706693372283368</v>
+        <v>-4.4576450893014012</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>-31.3787302226532</v>
+        <v>-22.17276158667703</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.91200801168501</v>
+        <v>-18.372935267904204</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>48.590231008975337</v>
+        <v>19.870599742172896</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="4"/>
-        <v>218.73075260420876</v>
+        <v>98.838301803101615</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
       </c>
       <c r="L7">
         <f ca="1">SUM(H4:H35)</f>
-        <v>4034.1753591963957</v>
+        <v>2735.5208912994294</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2877,23 +4793,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9100130587423862</v>
+        <v>-4.9431421399583435</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>-25.992647104177941</v>
+        <v>-20.528468084246661</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.730039176227159</v>
+        <v>-19.829426419875031</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.748280471990306</v>
+        <v>24.434654215831952</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="4"/>
-        <v>179.60953092115204</v>
+        <v>101.47513565602959</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -2912,23 +4828,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5297141091051554</v>
+        <v>-6.8481291640642645</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.4206129949796829</v>
+        <v>-29.366607025920644</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.5891423273154661</v>
+        <v>-25.544387492192794</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3400252555953793</v>
+        <v>46.896873047707523</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7622740693140182</v>
+        <v>201.1063180238217</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2940,23 +4856,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4571853971175841</v>
+        <v>-3.1906163490400026</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>-17.516098221240696</v>
+        <v>-21.484908466093522</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.371556191352752</v>
+        <v>-14.571849047120008</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>19.866501664278235</v>
+        <v>10.180032686761356</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="4"/>
-        <v>78.072497206191315</v>
+        <v>68.55010020954596</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2968,30 +4884,30 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5087765266830075</v>
+        <v>-4.266649245872836</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>-14.596332354918925</v>
+        <v>-21.436139155934576</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.526329580049023</v>
+        <v>-17.79994773761851</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>30.346618820933699</v>
+        <v>18.204295787307242</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>80.407933052441081</v>
+        <v>91.460486964093434</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
       </c>
       <c r="L11">
         <f ca="1">(L8*L7-L4*L6)/(L8*L5-L4*L4)</f>
-        <v>3.1011420992752359</v>
+        <v>2.8496260048749074</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3003,30 +4919,30 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4113212798241337</v>
+        <v>-9.2916219010938264</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>-28.133025936301003</v>
+        <v>-31.940132250486947</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.233963839472402</v>
+        <v>-32.874865703281479</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>41.105040553125768</v>
+        <v>86.334237552886449</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>180.36986785125089</v>
+        <v>296.77563234245775</v>
       </c>
       <c r="K12" t="s">
         <v>3</v>
       </c>
       <c r="L12">
         <f ca="1">(L6*L5-L7*L4)/(L8*L5-L4*L4)</f>
-        <v>-5.4098679631132045</v>
+        <v>-6.1568033306869756</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3038,23 +4954,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2194369936544547</v>
+        <v>5.8114812169519059</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>18.451254976629549</v>
+        <v>10.525252030994645</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>19.658310980963364</v>
+        <v>12.434443650855719</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>67.559144492655378</v>
+        <v>33.773313934984806</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>151.65892773425978</v>
+        <v>61.167304481810277</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,23 +4982,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.543543996614785</v>
+        <v>6.9399844649020217</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>-22.058232018014749</v>
+        <v>14.606213434157812</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.630631989844353</v>
+        <v>15.819953394706065</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>20.643792049174255</v>
+        <v>48.163384373081399</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
-        <v>100.22254766138695</v>
+        <v>101.36689432409842</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3094,23 +5010,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5727210354729451</v>
+        <v>-9.0556068583314016</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>14.380137150126686</v>
+        <v>-25.135003214557585</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>20.718163106418835</v>
+        <v>-32.166820574994205</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>73.491545952040326</v>
+        <v>82.004015572658716</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>123.27690423987701</v>
+        <v>227.61270749392949</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3122,23 +5038,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6069786375610953</v>
+        <v>6.3635576239809524</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9842940846947776</v>
+        <v>19.004748258123662</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8209359126832858</v>
+        <v>14.090672871942857</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7963376166999048</v>
+        <v>40.494865633726107</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="4"/>
-        <v>18.207905477243607</v>
+        <v>120.93781066982156</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3150,23 +5066,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0036628894437243</v>
+        <v>2.2119392729155418</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7279111182969586</v>
+        <v>-1.8057596938164195</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0109886683311728</v>
+        <v>1.6358178187466255</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0146649745339742</v>
+        <v>4.8926753470661355</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="4"/>
-        <v>11.476802941763719</v>
+        <v>-3.9942307842004823</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3178,23 +5094,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.219638733701002</v>
+        <v>-0.84757964723530144</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>-11.623975004795764</v>
+        <v>-2.2853289556925063</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:E25" ca="1" si="5">A18*C18+B18</f>
-        <v>-11.658916201103006</v>
+        <v>-7.5427389417059043</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9267961081457878</v>
+        <v>0.71839125840751805</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="4"/>
-        <v>25.801025160216966</v>
+        <v>1.9369983100824744</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3206,23 +5122,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.568865786451461</v>
+        <v>8.5782519459652953</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>2.538072058131231</v>
+        <v>17.431965936956782</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7065973593543831</v>
+        <v>20.734755837895886</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5990714288008832</v>
+        <v>73.586406448457382</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5199664736817633</v>
+        <v>149.53579572070026</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,23 +5150,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1515100092539825</v>
+        <v>1.9603926335276878</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>5.169051944279639</v>
+        <v>-4.4549286819138523</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="5"/>
-        <v>10.454530027761948</v>
+        <v>0.88117790058306333</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>26.538055375443967</v>
+        <v>3.8431392775896231</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="4"/>
-        <v>26.62842282931032</v>
+        <v>-8.7334093709151279</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3262,23 +5178,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.9630714580795656</v>
+        <v>-6.9773734390846283</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>-17.982244303582014</v>
+        <v>-32.105668761006498</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="5"/>
-        <v>-16.889214374238698</v>
+        <v>-25.932120317253883</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>15.705935381844894</v>
+        <v>48.683740108443651</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="4"/>
-        <v>71.264919151739733</v>
+        <v>224.01324045709583</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3290,23 +5206,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7094181597368348</v>
+        <v>-4.1675055356288464</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>15.240506987323121</v>
+        <v>-10.580579779754974</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>15.128254479210504</v>
+        <v>-17.502516606886537</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>45.016292042206416</v>
+        <v>17.368102389497079</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="4"/>
-        <v>102.25493434434186</v>
+        <v>44.094624802291492</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3318,23 +5234,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7155772910909448</v>
+        <v>-1.0129186378080597</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>15.178482676057291</v>
+        <v>-9.9526358474643697</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="5"/>
-        <v>15.146731873272834</v>
+        <v>-8.0387559134241791</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>45.098978352616392</v>
+        <v>1.0260041668189352</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="4"/>
-        <v>101.93227357254766</v>
+        <v>10.081210345213274</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3346,23 +5262,23 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6889261123958477</v>
+        <v>2.0789459600980731</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>-35.90249646870852</v>
+        <v>4.0790132535405821</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="5"/>
-        <v>-31.066778337187543</v>
+        <v>1.2368378802942193</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>75.497436986674415</v>
+        <v>4.3220163050080993</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="4"/>
-        <v>311.95413906716118</v>
+        <v>8.4800481246346902</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3374,23 +5290,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4356135117745836</v>
+        <v>9.4944791900789163</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.0881344948484024</v>
+        <v>23.741324715510878</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="5"/>
-        <v>-12.306840535323751</v>
+        <v>23.483437570236749</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9322131787389196</v>
+        <v>90.145135090841592</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="4"/>
-        <v>22.135183172477451</v>
+        <v>225.41151345632429</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3402,23 +5318,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8823516890362058</v>
+        <v>-2.2383422014928627</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5563269610367367</v>
+        <v>-4.7636500592962623</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26:E35" ca="1" si="6">A26*C26+B26</f>
-        <v>3.6470550671086173</v>
+        <v>-11.715026604478588</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:G35" ca="1" si="7">C26*C26</f>
-        <v>8.3079512592898688</v>
+        <v>5.010175810983915</v>
       </c>
       <c r="H26">
         <f t="shared" ref="H26:H35" ca="1" si="8">C26*D26</f>
-        <v>21.779991779054058</v>
+        <v>10.662678960866801</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3430,23 +5346,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>5.869794339984665</v>
+        <v>-1.2414376528740014</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3021711998670007</v>
+        <v>-15.985362465535779</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>12.609383019953995</v>
+        <v>-8.7243129586220043</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>34.454485593716008</v>
+        <v>1.5411674459733096</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="8"/>
-        <v>31.12265449860902</v>
+        <v>19.844830859554897</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3458,23 +5374,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>8.558082680191049</v>
+        <v>-0.10198819012736493</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>22.612292848383756</v>
+        <v>-6.5777509223545678</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="6"/>
-        <v>20.674248040573147</v>
+        <v>-5.3059645703820948</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>73.240779160986008</v>
+        <v>1.0401590925455537E-2</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="8"/>
-        <v>193.51787178516093</v>
+        <v>0.67085291167954775</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3486,23 +5402,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6536566110692466</v>
+        <v>-1.688096522063594</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>12.089442264706967</v>
+        <v>-9.5768668894434406</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9609698332077397</v>
+        <v>-10.064289566190782</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>13.349206631610011</v>
+        <v>2.8496698678032018</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="8"/>
-        <v>44.170670654586573</v>
+        <v>16.166675688335463</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3514,23 +5430,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45377896356381697</v>
+        <v>2.3499227135666505</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.4443975621264489</v>
+        <v>-0.80344829501114212</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.6386631093085491</v>
+        <v>2.0497681406999515</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20591534777305193</v>
+        <v>5.5221367597364504</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.3781110100987459</v>
+        <v>-1.8880413976230819</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3542,23 +5458,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7834398893335006</v>
+        <v>2.3657170006659243</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>26.715761935747508</v>
+        <v>-3.893189612881061</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="6"/>
-        <v>24.350319668000502</v>
+        <v>2.0971510019977728</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>95.715696068201893</v>
+        <v>5.5966169272397766</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="8"/>
-        <v>261.37205099612976</v>
+        <v>-9.2101848540087143</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3570,23 +5486,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4262116945963292</v>
+        <v>1.8465383515446927</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>-10.116711522812965</v>
+        <v>-7.0977408307737679</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.2786350837889877</v>
+        <v>0.53961505463407811</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0340797978033329</v>
+        <v>3.409703883725391</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="8"/>
-        <v>14.428572284693288</v>
+        <v>-13.106250653348452</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3598,23 +5514,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2896050878444196</v>
+        <v>-2.5238352979665084</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>-37.228751217942261</v>
+        <v>-10.933435043650398</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="6"/>
-        <v>-32.868815263533257</v>
+        <v>-12.571505893899525</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>86.296762688104934</v>
+        <v>6.3697446112616944</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="8"/>
-        <v>345.84039672829056</v>
+        <v>27.594189291188869</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3626,23 +5542,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5712704911017283</v>
+        <v>-6.1645202324407</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>-41.364246226299151</v>
+        <v>-26.072667735500161</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="6"/>
-        <v>-33.713811473305185</v>
+        <v>-23.493560697322099</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>91.609218813834715</v>
+        <v>38.001309696170743</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="8"/>
-        <v>395.90838929244308</v>
+        <v>160.72548776919459</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3654,27 +5570,1008 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.7105313167625198</v>
+        <v>-2.617413484690716</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>-23.218327756788241</v>
+        <v>-11.924919106199868</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="6"/>
-        <v>-25.131593950287559</v>
+        <v>-12.852240454072149</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>45.031230553250516</v>
+        <v>6.8508533498407971</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="8"/>
-        <v>155.80731553478395</v>
+        <v>31.212444072413494</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>-5</v>
+      </c>
+      <c r="C43">
+        <f ca="1">RAND() * 40 - 20</f>
+        <v>-19.259808670923363</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" ca="1" si="9">E43+(RAND() * 16-8)</f>
+        <v>-62.495498022258133</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E53" ca="1" si="10">A43*C43+B43</f>
+        <v>-62.779426012770088</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>-5</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:C53" ca="1" si="11">RAND() * 40 - 20</f>
+        <v>4.3260609977647491</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D53" ca="1" si="12">E44+(RAND() * 16-8)</f>
+        <v>12.690873339537625</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.9781829932942472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>-5</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="11"/>
+        <v>19.775035163142988</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="12"/>
+        <v>48.664911976706804</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="10"/>
+        <v>54.325105489428964</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>-5</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="11"/>
+        <v>13.81663072687266</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="12"/>
+        <v>30.106918130806548</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="10"/>
+        <v>36.449892180617979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>-5</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.4754093480302615</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.9816173578735992</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.4262280440907844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>-5</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.32656777377038182</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.2088693411179499</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="10"/>
+        <v>-5.9797033213111455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>-5</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="11"/>
+        <v>-18.262214478351254</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="12"/>
+        <v>-56.130383101563375</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="10"/>
+        <v>-59.786643435053762</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>-5</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="11"/>
+        <v>-10.864633648780103</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="12"/>
+        <v>-36.341542332162746</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="10"/>
+        <v>-37.593900946340312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>-5</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="11"/>
+        <v>-16.062085680916603</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="12"/>
+        <v>-56.894069657073459</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="10"/>
+        <v>-53.186257042749808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>-5</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="11"/>
+        <v>15.049006063110028</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="12"/>
+        <v>45.092864802601355</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="10"/>
+        <v>40.147018189330083</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>-5</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="11"/>
+        <v>-16.666347288198299</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="12"/>
+        <v>-51.923186973340123</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="10"/>
+        <v>-54.999041864594901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>-5</v>
+      </c>
+      <c r="C58">
+        <v>13.252876555727781</v>
+      </c>
+      <c r="D58">
+        <v>40.892772941453991</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:E68" si="13">A58*C58+B58</f>
+        <v>34.758629667183342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>-5</v>
+      </c>
+      <c r="C59">
+        <v>-14.86016997602003</v>
+      </c>
+      <c r="D59">
+        <v>-45.390614008409372</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="13"/>
+        <v>-49.580509928060088</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>-5</v>
+      </c>
+      <c r="C60">
+        <v>-5.6859424435578276</v>
+      </c>
+      <c r="D60">
+        <v>-22.805992953798295</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="13"/>
+        <v>-22.057827330673483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>-5</v>
+      </c>
+      <c r="C61">
+        <v>18.028149899589124</v>
+      </c>
+      <c r="D61">
+        <v>50.832118452475449</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="13"/>
+        <v>49.084449698767372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>-5</v>
+      </c>
+      <c r="C62">
+        <v>-10.929366096983664</v>
+      </c>
+      <c r="D62">
+        <v>-30.879551173313487</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="13"/>
+        <v>-37.788098290950991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>-5</v>
+      </c>
+      <c r="C63">
+        <v>-19.585719069075758</v>
+      </c>
+      <c r="D63">
+        <v>-60.713038290978012</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="13"/>
+        <v>-63.757157207227273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>-5</v>
+      </c>
+      <c r="C64">
+        <v>-6.9369714147063899</v>
+      </c>
+      <c r="D64">
+        <v>-32.676894035786589</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="13"/>
+        <v>-25.810914244119168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>-5</v>
+      </c>
+      <c r="C65">
+        <v>-1.0707211680082125</v>
+      </c>
+      <c r="D65">
+        <v>-3.1867703107329337</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="13"/>
+        <v>-8.2121635040246375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>-5</v>
+      </c>
+      <c r="C66">
+        <v>7.7961189091998193</v>
+      </c>
+      <c r="D66">
+        <v>16.732948495556933</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="13"/>
+        <v>18.388356727599458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>-5</v>
+      </c>
+      <c r="C67">
+        <v>-11.928550088625371</v>
+      </c>
+      <c r="D67">
+        <v>-43.922563512114813</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="13"/>
+        <v>-40.785650265876114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>-5</v>
+      </c>
+      <c r="C68">
+        <v>13.365180519622598</v>
+      </c>
+      <c r="D68">
+        <v>28.794742995300382</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="13"/>
+        <v>35.095541558867794</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>-5.5882800000000001E-9</v>
+      </c>
+      <c r="C73">
+        <v>13.252876555727781</v>
+      </c>
+      <c r="D73">
+        <v>40.892772941453991</v>
+      </c>
+      <c r="E73">
+        <f>B73*C73^10+B74*C73^9+B75*C73^8+B76*C73^7+B77*C73^6+B78*C73^5+B79*C73^4+B80*C73^3+B81*C73^2+B82*C73+B83</f>
+        <v>40.893111814520118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>-1.6933578999999999E-8</v>
+      </c>
+      <c r="C74">
+        <v>-14.86016997602003</v>
+      </c>
+      <c r="D74">
+        <v>-45.390614008409372</v>
+      </c>
+      <c r="E74">
+        <f>B73*C74^10+B74*C74^9+B75*C74^8+B76*C74^7+B77*C74^6+B78*C74^5+B79*C74^4+B80*C74^3+B81*C74^2+B82*C74+B83</f>
+        <v>-45.392097130176985</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>4.9116677510000004E-6</v>
+      </c>
+      <c r="C75">
+        <v>-5.6859424435578276</v>
+      </c>
+      <c r="D75">
+        <v>-22.805992953798295</v>
+      </c>
+      <c r="E75">
+        <f>B73*C75^10+B74*C75^9+B75*C75^8+B76*C75^7+B77*C75^6+B78*C75^5+B79*C75^4+B80*C75^3+B81*C75^2+B82*C75+B83</f>
+        <v>-22.806028645723622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>1.9301830732999999E-5</v>
+      </c>
+      <c r="C76">
+        <v>18.028149899589124</v>
+      </c>
+      <c r="D76">
+        <v>50.832118452475449</v>
+      </c>
+      <c r="E76">
+        <f>B73*C76^10+B74*C76^9+B75*C76^8+B76*C76^7+B77*C76^6+B78*C76^5+B79*C76^4+B80*C76^3+B81*C76^2+B82*C76+B83</f>
+        <v>50.831556073089978</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>-1.46110556229E-3</v>
+      </c>
+      <c r="C77">
+        <v>-10.929366096983664</v>
+      </c>
+      <c r="D77">
+        <v>-30.879551173313487</v>
+      </c>
+      <c r="E77">
+        <f>B73*C77^10+B74*C77^9+B75*C77^8+B76*C77^7+B77*C77^6+B78*C77^5+B79*C77^4+B80*C77^3+B81*C77^2+B82*C77+B83</f>
+        <v>-30.879310696821172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>-7.3065839008060003E-3</v>
+      </c>
+      <c r="C78">
+        <v>-19.585719069075758</v>
+      </c>
+      <c r="D78">
+        <v>-60.713038290978012</v>
+      </c>
+      <c r="E78">
+        <f>B73*C78^10+B74*C78^9+B75*C78^8+B76*C78^7+B77*C78^6+B78*C78^5+B79*C78^4+B80*C78^3+B81*C78^2+B82*C78+B83</f>
+        <v>-60.729294102050808</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>0.16644244766541899</v>
+      </c>
+      <c r="C79">
+        <v>-6.9369714147063899</v>
+      </c>
+      <c r="D79">
+        <v>-32.676894035786589</v>
+      </c>
+      <c r="E79">
+        <f>B73*C79^10+B74*C79^9+B75*C79^8+B76*C79^7+B77*C79^6+B78*C79^5+B79*C79^4+B80*C79^3+B81*C79^2+B82*C79+B83</f>
+        <v>-32.67690518022696</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>0.99991125241120604</v>
+      </c>
+      <c r="C80">
+        <v>-1.0707211680082125</v>
+      </c>
+      <c r="D80">
+        <v>-3.1867703107329337</v>
+      </c>
+      <c r="E80">
+        <f>B73*C80^10+B74*C80^9+B74*C80^8+B76*C80^7+B77*C80^6+B78*C80^5+B79*C80^4+B80*C80^3+B81*C80^2+B82*C80+B83</f>
+        <v>-3.1867543871371886</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>-5.3363143087985598</v>
+      </c>
+      <c r="C81">
+        <v>7.7961189091998193</v>
+      </c>
+      <c r="D81">
+        <v>16.732948495556933</v>
+      </c>
+      <c r="E81">
+        <f>B73*C81^10+B74*C81^9+B75*C81^8+B76*C81^7+B77*C81^6+B78*C81^5+B79*C81^4+B80*C81^3+B81*C81^2+B82*C81+B83</f>
+        <v>16.732942271897905</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>-34.670075611820998</v>
+      </c>
+      <c r="C82">
+        <v>-11.928550088625371</v>
+      </c>
+      <c r="D82">
+        <v>-43.922563512114813</v>
+      </c>
+      <c r="E82">
+        <f>B73*C82^10+B74*C82^9+B75*C82^8+B76*C82^7+B77*C82^6+B78*C82^5+B79*C82^4+B80*C82^3+B81*C82^2+B82*C82+B83</f>
+        <v>-43.92177116194825</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>-33.190351515164998</v>
+      </c>
+      <c r="C83">
+        <v>13.365180519622598</v>
+      </c>
+      <c r="D83">
+        <v>28.794742995300382</v>
+      </c>
+      <c r="E83">
+        <f>B73*C83^10+B74*C83^9+B75*C83^8+B76*C83^7+B77*C83^6+B78*C83^5+B79*C83^4+B80*C83^3+B81*C83^2+B82*C83+B83</f>
+        <v>28.794655124497233</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f>C86+0.1</f>
+        <v>-19.899999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f t="shared" ref="C88:C150" si="14">C87+0.1</f>
+        <v>-19.799999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f t="shared" si="14"/>
+        <v>-19.699999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f t="shared" si="14"/>
+        <v>-19.599999999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f t="shared" si="14"/>
+        <v>-19.499999999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <f t="shared" si="14"/>
+        <v>-19.399999999999991</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" si="14"/>
+        <v>-19.29999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="14"/>
+        <v>-19.199999999999989</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <f t="shared" si="14"/>
+        <v>-19.099999999999987</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f t="shared" si="14"/>
+        <v>-18.999999999999986</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="14"/>
+        <v>-18.899999999999984</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f t="shared" si="14"/>
+        <v>-18.799999999999983</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <f t="shared" si="14"/>
+        <v>-18.699999999999982</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <f t="shared" si="14"/>
+        <v>-18.59999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <f t="shared" si="14"/>
+        <v>-18.499999999999979</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <f t="shared" si="14"/>
+        <v>-18.399999999999977</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <f t="shared" si="14"/>
+        <v>-18.299999999999976</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f t="shared" si="14"/>
+        <v>-18.199999999999974</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <f t="shared" si="14"/>
+        <v>-18.099999999999973</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <f t="shared" si="14"/>
+        <v>-17.999999999999972</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <f t="shared" si="14"/>
+        <v>-17.89999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <f t="shared" si="14"/>
+        <v>-17.799999999999969</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <f t="shared" si="14"/>
+        <v>-17.699999999999967</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <f t="shared" si="14"/>
+        <v>-17.599999999999966</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <f t="shared" si="14"/>
+        <v>-17.499999999999964</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f t="shared" si="14"/>
+        <v>-17.399999999999963</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <f t="shared" si="14"/>
+        <v>-17.299999999999962</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <f t="shared" si="14"/>
+        <v>-17.19999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <f t="shared" si="14"/>
+        <v>-17.099999999999959</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <f t="shared" si="14"/>
+        <v>-16.999999999999957</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <f t="shared" si="14"/>
+        <v>-16.899999999999956</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <f t="shared" si="14"/>
+        <v>-16.799999999999955</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <f t="shared" si="14"/>
+        <v>-16.699999999999953</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <f t="shared" si="14"/>
+        <v>-16.599999999999952</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <f t="shared" si="14"/>
+        <v>-16.49999999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <f t="shared" si="14"/>
+        <v>-16.399999999999949</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <f t="shared" si="14"/>
+        <v>-16.299999999999947</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <f t="shared" si="14"/>
+        <v>-16.199999999999946</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <f t="shared" si="14"/>
+        <v>-16.099999999999945</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <f t="shared" si="14"/>
+        <v>-15.999999999999945</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <f t="shared" si="14"/>
+        <v>-15.899999999999945</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <f t="shared" si="14"/>
+        <v>-15.799999999999946</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <f t="shared" si="14"/>
+        <v>-15.699999999999946</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <f t="shared" si="14"/>
+        <v>-15.599999999999946</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <f t="shared" si="14"/>
+        <v>-15.499999999999947</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <f t="shared" si="14"/>
+        <v>-15.399999999999947</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <f t="shared" si="14"/>
+        <v>-15.299999999999947</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <f t="shared" si="14"/>
+        <v>-15.199999999999948</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <f t="shared" si="14"/>
+        <v>-15.099999999999948</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <f t="shared" si="14"/>
+        <v>-14.999999999999948</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <f t="shared" si="14"/>
+        <v>-14.899999999999949</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <f t="shared" si="14"/>
+        <v>-14.799999999999949</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <f t="shared" si="14"/>
+        <v>-14.69999999999995</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <f t="shared" si="14"/>
+        <v>-14.59999999999995</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <f t="shared" si="14"/>
+        <v>-14.49999999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <f t="shared" si="14"/>
+        <v>-14.399999999999951</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <f t="shared" si="14"/>
+        <v>-14.299999999999951</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <f t="shared" si="14"/>
+        <v>-14.199999999999951</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <f t="shared" si="14"/>
+        <v>-14.099999999999952</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <f t="shared" si="14"/>
+        <v>-13.999999999999952</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <f t="shared" si="14"/>
+        <v>-13.899999999999952</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <f t="shared" si="14"/>
+        <v>-13.799999999999953</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <f t="shared" si="14"/>
+        <v>-13.699999999999953</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <f t="shared" si="14"/>
+        <v>-13.599999999999953</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/sphinx-book/source/supervised/supervised/figures/linerexample.xlsx
+++ b/sphinx-book/source/supervised/supervised/figures/linerexample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5085" windowHeight="3480"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5085" windowHeight="855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,100 +172,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>7.1574122510237785</c:v>
+                  <c:v>9.3449675983740974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.8526747907185523</c:v>
+                  <c:v>3.9734413775466706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.223119466725521</c:v>
+                  <c:v>4.3286066061721726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.4576450893014012</c:v>
+                  <c:v>-1.5156733451544486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.9431421399583435</c:v>
+                  <c:v>-6.8294807957372061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.8481291640642645</c:v>
+                  <c:v>6.0848199921786019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.1906163490400026</c:v>
+                  <c:v>-8.7610005791985088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.266649245872836</c:v>
+                  <c:v>-6.919167141111493</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2916219010938264</c:v>
+                  <c:v>5.7403351358880439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8114812169519059</c:v>
+                  <c:v>-6.1438347601616217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9399844649020217</c:v>
+                  <c:v>-6.4694349247347667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.0556068583314016</c:v>
+                  <c:v>-0.57599578929791306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3635576239809524</c:v>
+                  <c:v>-7.2268175855631096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2119392729155418</c:v>
+                  <c:v>-7.12899422179804</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.84757964723530144</c:v>
+                  <c:v>-7.5946290343765099E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5782519459652953</c:v>
+                  <c:v>1.1685738975410374</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9603926335276878</c:v>
+                  <c:v>3.0454396721072072</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.9773734390846283</c:v>
+                  <c:v>-2.7696072551724455</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.1675055356288464</c:v>
+                  <c:v>1.0311169526528836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0129186378080597</c:v>
+                  <c:v>7.7085880697110234</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0789459600980731</c:v>
+                  <c:v>-9.2961025096693177</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.4944791900789163</c:v>
+                  <c:v>9.5025020321163716</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.2383422014928627</c:v>
+                  <c:v>-1.8728610149273663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.2414376528740014</c:v>
+                  <c:v>1.1403513751594687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.10198819012736493</c:v>
+                  <c:v>-8.0094749000988568</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.688096522063594</c:v>
+                  <c:v>8.8123966383000294</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3499227135666505</c:v>
+                  <c:v>-6.8474718180664844</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3657170006659243</c:v>
+                  <c:v>4.8138253376664473</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8465383515446927</c:v>
+                  <c:v>7.7821734223149974</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.5238352979665084</c:v>
+                  <c:v>-3.8351534900508515</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6.1645202324407</c:v>
+                  <c:v>6.6943583539125875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.617413484690716</c:v>
+                  <c:v>-5.9759470738235159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,100 +277,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>14.605666665177367</c:v>
+                  <c:v>24.091397265892702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-27.908612748768967</c:v>
+                  <c:v>5.7675064703265431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.730063945040733</c:v>
+                  <c:v>13.236165796293996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-22.17276158667703</c:v>
+                  <c:v>-14.644010403626488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-20.528468084246661</c:v>
+                  <c:v>-31.433855052150037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-29.366607025920644</c:v>
+                  <c:v>17.77305492109172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21.484908466093522</c:v>
+                  <c:v>-32.682427870918865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-21.436139155934576</c:v>
+                  <c:v>-30.176962229563291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-31.940132250486947</c:v>
+                  <c:v>14.766011728907101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.525252030994645</c:v>
+                  <c:v>-20.528947199984739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.606213434157812</c:v>
+                  <c:v>-22.461524656668008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25.135003214557585</c:v>
+                  <c:v>-12.938013550314917</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.004748258123662</c:v>
+                  <c:v>-22.22804814589405</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.8057596938164195</c:v>
+                  <c:v>-23.210452141547666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.2853289556925063</c:v>
+                  <c:v>-12.374874183170853</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.431965936956782</c:v>
+                  <c:v>4.0200872635541067</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.4549286819138523</c:v>
+                  <c:v>9.3090780929893775</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-32.105668761006498</c:v>
+                  <c:v>-15.266492724248504</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-10.580579779754974</c:v>
+                  <c:v>-4.7385972360000075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.9526358474643697</c:v>
+                  <c:v>23.707187365261959</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0790132535405821</c:v>
+                  <c:v>-25.601143888843467</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.741324715510878</c:v>
+                  <c:v>17.245405682174823</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-4.7636500592962623</c:v>
+                  <c:v>-14.284166191464095</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-15.985362465535779</c:v>
+                  <c:v>-7.8423864121059896</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.5777509223545678</c:v>
+                  <c:v>-35.885254414137279</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-9.5768668894434406</c:v>
+                  <c:v>15.944607018609625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.80344829501114212</c:v>
+                  <c:v>-32.697127135949714</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.893189612881061</c:v>
+                  <c:v>10.400094918890302</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-7.0977408307737679</c:v>
+                  <c:v>25.129755871761152</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-10.933435043650398</c:v>
+                  <c:v>-15.535942630414022</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-26.072667735500161</c:v>
+                  <c:v>18.147772119565097</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11.924919106199868</c:v>
+                  <c:v>-19.801758546945155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,100 +402,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>7.1574122510237785</c:v>
+                  <c:v>9.3449675983740974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.8526747907185523</c:v>
+                  <c:v>3.9734413775466706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.223119466725521</c:v>
+                  <c:v>4.3286066061721726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.4576450893014012</c:v>
+                  <c:v>-1.5156733451544486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.9431421399583435</c:v>
+                  <c:v>-6.8294807957372061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.8481291640642645</c:v>
+                  <c:v>6.0848199921786019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.1906163490400026</c:v>
+                  <c:v>-8.7610005791985088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.266649245872836</c:v>
+                  <c:v>-6.919167141111493</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2916219010938264</c:v>
+                  <c:v>5.7403351358880439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8114812169519059</c:v>
+                  <c:v>-6.1438347601616217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9399844649020217</c:v>
+                  <c:v>-6.4694349247347667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.0556068583314016</c:v>
+                  <c:v>-0.57599578929791306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3635576239809524</c:v>
+                  <c:v>-7.2268175855631096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2119392729155418</c:v>
+                  <c:v>-7.12899422179804</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.84757964723530144</c:v>
+                  <c:v>-7.5946290343765099E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5782519459652953</c:v>
+                  <c:v>1.1685738975410374</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9603926335276878</c:v>
+                  <c:v>3.0454396721072072</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.9773734390846283</c:v>
+                  <c:v>-2.7696072551724455</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.1675055356288464</c:v>
+                  <c:v>1.0311169526528836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0129186378080597</c:v>
+                  <c:v>7.7085880697110234</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0789459600980731</c:v>
+                  <c:v>-9.2961025096693177</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.4944791900789163</c:v>
+                  <c:v>9.5025020321163716</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.2383422014928627</c:v>
+                  <c:v>-1.8728610149273663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.2414376528740014</c:v>
+                  <c:v>1.1403513751594687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.10198819012736493</c:v>
+                  <c:v>-8.0094749000988568</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.688096522063594</c:v>
+                  <c:v>8.8123966383000294</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3499227135666505</c:v>
+                  <c:v>-6.8474718180664844</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3657170006659243</c:v>
+                  <c:v>4.8138253376664473</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8465383515446927</c:v>
+                  <c:v>7.7821734223149974</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.5238352979665084</c:v>
+                  <c:v>-3.8351534900508515</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6.1645202324407</c:v>
+                  <c:v>6.6943583539125875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.617413484690716</c:v>
+                  <c:v>-5.9759470738235159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,100 +507,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>16.472236753071336</c:v>
+                  <c:v>23.034902795122292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-31.558024372155657</c:v>
+                  <c:v>6.9203241326400118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.669358400176563</c:v>
+                  <c:v>7.9858198185165179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-18.372935267904204</c:v>
+                  <c:v>-9.5470200354633459</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-19.829426419875031</c:v>
+                  <c:v>-25.48844238721162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-25.544387492192794</c:v>
+                  <c:v>13.254459976535806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-14.571849047120008</c:v>
+                  <c:v>-31.283001737595526</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17.79994773761851</c:v>
+                  <c:v>-25.757501423334478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-32.874865703281479</c:v>
+                  <c:v>12.22100540766413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.434443650855719</c:v>
+                  <c:v>-23.431504280484866</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.819953394706065</c:v>
+                  <c:v>-24.4083047742043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-32.166820574994205</c:v>
+                  <c:v>-6.7279873678937392</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.090672871942857</c:v>
+                  <c:v>-26.680452756689327</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6358178187466255</c:v>
+                  <c:v>-26.386982665394122</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.5427389417059043</c:v>
+                  <c:v>-5.2278388710312953</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.734755837895886</c:v>
+                  <c:v>-1.4942783073768879</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88117790058306333</c:v>
+                  <c:v>4.1363190163216217</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-25.932120317253883</c:v>
+                  <c:v>-13.308821765517337</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-17.502516606886537</c:v>
+                  <c:v>-1.9066491420413492</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.0387559134241791</c:v>
+                  <c:v>18.12576420913307</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2368378802942193</c:v>
+                  <c:v>-32.888307529007953</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.483437570236749</c:v>
+                  <c:v>23.507506096349115</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-11.715026604478588</c:v>
+                  <c:v>-10.618583044782099</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.7243129586220043</c:v>
+                  <c:v>-1.5789458745215939</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.3059645703820948</c:v>
+                  <c:v>-29.028424700296569</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-10.064289566190782</c:v>
+                  <c:v>21.437189914900088</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0497681406999515</c:v>
+                  <c:v>-25.542415454199453</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0971510019977728</c:v>
+                  <c:v>9.4414760129993418</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.53961505463407811</c:v>
+                  <c:v>18.346520266944992</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-12.571505893899525</c:v>
+                  <c:v>-16.505460470152556</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-23.493560697322099</c:v>
+                  <c:v>15.083075061737762</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-12.852240454072149</c:v>
+                  <c:v>-22.927841221470548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,100 +861,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>7.1574122510237785</c:v>
+                  <c:v>9.3449675983740974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.8526747907185523</c:v>
+                  <c:v>3.9734413775466706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.223119466725521</c:v>
+                  <c:v>4.3286066061721726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.4576450893014012</c:v>
+                  <c:v>-1.5156733451544486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.9431421399583435</c:v>
+                  <c:v>-6.8294807957372061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.8481291640642645</c:v>
+                  <c:v>6.0848199921786019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.1906163490400026</c:v>
+                  <c:v>-8.7610005791985088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.266649245872836</c:v>
+                  <c:v>-6.919167141111493</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2916219010938264</c:v>
+                  <c:v>5.7403351358880439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8114812169519059</c:v>
+                  <c:v>-6.1438347601616217</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9399844649020217</c:v>
+                  <c:v>-6.4694349247347667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.0556068583314016</c:v>
+                  <c:v>-0.57599578929791306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3635576239809524</c:v>
+                  <c:v>-7.2268175855631096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2119392729155418</c:v>
+                  <c:v>-7.12899422179804</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.84757964723530144</c:v>
+                  <c:v>-7.5946290343765099E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5782519459652953</c:v>
+                  <c:v>1.1685738975410374</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9603926335276878</c:v>
+                  <c:v>3.0454396721072072</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.9773734390846283</c:v>
+                  <c:v>-2.7696072551724455</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.1675055356288464</c:v>
+                  <c:v>1.0311169526528836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0129186378080597</c:v>
+                  <c:v>7.7085880697110234</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0789459600980731</c:v>
+                  <c:v>-9.2961025096693177</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.4944791900789163</c:v>
+                  <c:v>9.5025020321163716</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.2383422014928627</c:v>
+                  <c:v>-1.8728610149273663</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.2414376528740014</c:v>
+                  <c:v>1.1403513751594687</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.10198819012736493</c:v>
+                  <c:v>-8.0094749000988568</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.688096522063594</c:v>
+                  <c:v>8.8123966383000294</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3499227135666505</c:v>
+                  <c:v>-6.8474718180664844</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3657170006659243</c:v>
+                  <c:v>4.8138253376664473</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8465383515446927</c:v>
+                  <c:v>7.7821734223149974</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.5238352979665084</c:v>
+                  <c:v>-3.8351534900508515</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6.1645202324407</c:v>
+                  <c:v>6.6943583539125875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.617413484690716</c:v>
+                  <c:v>-5.9759470738235159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,100 +966,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>14.605666665177367</c:v>
+                  <c:v>24.091397265892702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-27.908612748768967</c:v>
+                  <c:v>5.7675064703265431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.730063945040733</c:v>
+                  <c:v>13.236165796293996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-22.17276158667703</c:v>
+                  <c:v>-14.644010403626488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-20.528468084246661</c:v>
+                  <c:v>-31.433855052150037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-29.366607025920644</c:v>
+                  <c:v>17.77305492109172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21.484908466093522</c:v>
+                  <c:v>-32.682427870918865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-21.436139155934576</c:v>
+                  <c:v>-30.176962229563291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-31.940132250486947</c:v>
+                  <c:v>14.766011728907101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.525252030994645</c:v>
+                  <c:v>-20.528947199984739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.606213434157812</c:v>
+                  <c:v>-22.461524656668008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25.135003214557585</c:v>
+                  <c:v>-12.938013550314917</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.004748258123662</c:v>
+                  <c:v>-22.22804814589405</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.8057596938164195</c:v>
+                  <c:v>-23.210452141547666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.2853289556925063</c:v>
+                  <c:v>-12.374874183170853</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.431965936956782</c:v>
+                  <c:v>4.0200872635541067</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.4549286819138523</c:v>
+                  <c:v>9.3090780929893775</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-32.105668761006498</c:v>
+                  <c:v>-15.266492724248504</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-10.580579779754974</c:v>
+                  <c:v>-4.7385972360000075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.9526358474643697</c:v>
+                  <c:v>23.707187365261959</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0790132535405821</c:v>
+                  <c:v>-25.601143888843467</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.741324715510878</c:v>
+                  <c:v>17.245405682174823</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-4.7636500592962623</c:v>
+                  <c:v>-14.284166191464095</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-15.985362465535779</c:v>
+                  <c:v>-7.8423864121059896</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.5777509223545678</c:v>
+                  <c:v>-35.885254414137279</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-9.5768668894434406</c:v>
+                  <c:v>15.944607018609625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.80344829501114212</c:v>
+                  <c:v>-32.697127135949714</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.893189612881061</c:v>
+                  <c:v>10.400094918890302</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-7.0977408307737679</c:v>
+                  <c:v>25.129755871761152</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-10.933435043650398</c:v>
+                  <c:v>-15.535942630414022</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-26.072667735500161</c:v>
+                  <c:v>18.147772119565097</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-11.924919106199868</c:v>
+                  <c:v>-19.801758546945155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,37 +1288,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-19.259808670923363</c:v>
+                  <c:v>12.943096074203822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3260609977647491</c:v>
+                  <c:v>11.880635611806269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.775035163142988</c:v>
+                  <c:v>-7.6629943361448216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.81663072687266</c:v>
+                  <c:v>-15.213993984626267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4754093480302615</c:v>
+                  <c:v>-4.6299254834188908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.32656777377038182</c:v>
+                  <c:v>-6.5618671082365552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.262214478351254</c:v>
+                  <c:v>-18.452030072081627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.864633648780103</c:v>
+                  <c:v>-7.3996335376322939</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-16.062085680916603</c:v>
+                  <c:v>0.47870295009316521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.049006063110028</c:v>
+                  <c:v>4.950749164763284</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-16.666347288198299</c:v>
+                  <c:v>-8.5699915007379843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,37 +1330,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-62.495498022258133</c:v>
+                  <c:v>32.055610575736061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.690873339537625</c:v>
+                  <c:v>31.047054138012193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.664911976706804</c:v>
+                  <c:v>-25.391386566587926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.106918130806548</c:v>
+                  <c:v>-44.688416652412307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9816173578735992</c:v>
+                  <c:v>-13.361031007894642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2088693411179499</c:v>
+                  <c:v>-31.917837511593078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-56.130383101563375</c:v>
+                  <c:v>-65.177545603066278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-36.341542332162746</c:v>
+                  <c:v>-22.112331206955453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-56.894069657073459</c:v>
+                  <c:v>-11.140537023311415</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.092864802601355</c:v>
+                  <c:v>4.3235666225651581</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-51.923186973340123</c:v>
+                  <c:v>-31.483155772167677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,6 +1967,1658 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$73:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.252876555727781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.86016997602003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.6859424435578276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.028149899589124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.929366096983664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-19.585719069075758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.9369714147063899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0707211680082125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7961189091998193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.928550088625371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.365180519622598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$73:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>40.892772941453991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45.390614008409372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-22.805992953798295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.832118452475449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30.879551173313487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60.713038290978012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-32.676894035786589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.1867703107329337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.732948495556933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-43.922563512114813</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.794742995300382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$86:$C$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-16.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$86:$E$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-494.14412424157905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.867708878771559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250.9137977076719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>337.64037839607153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>329.30226158135457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271.36499857059306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194.14379200944785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116.60438541753871</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.439532371762361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4762964598871307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-38.161581591846307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-59.049031406030515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-67.879688687719351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-67.904464978979888</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-62.335485240185115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-53.996837632813602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-45.130983162650928</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-37.323207254538325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-31.512109871743014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-28.059252348127536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-26.855727473227155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-27.447614362349107</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-29.166041059592722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-31.250925464506459</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-32.960418846570242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-33.660655719206382</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-32.892638990056589</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-30.41497989031857</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-26.222788016432254</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-20.544287695851615</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-13.817742618472273</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.6520210599890461</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.22535113350178193</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.0285035255063733</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.977650589484746</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.363461246451642</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6074212456832058</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3146070076734446</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.6842279173675152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-17.303773170635697</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-33.190351515164998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-51.724327329322733</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-72.0391312341944</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-93.056529339227637</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-113.53699860399033</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-132.14332473079037</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-147.51483562667258</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-158.34904160741806</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-163.48689296409032</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-161.9974060778695</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-153.25707075485573</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-137.01925366267344</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-113.4687754885399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-83.256982507435254</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-47.512976452600931</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.8272297222622527</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.795384160314477</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75.015052488084336</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>113.26954359075302</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>145.91871028385208</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>170.41794161156486</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>184.51522930554222</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>186.46385817663162</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>175.23969408532508</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>150.74860939628724</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>114.00573410918662</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.26393136863669</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.064148987000571</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-40.824925838463919</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-91.616203071413679</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-131.90705073151167</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-155.3269886475727</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-156.48885559711476</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-132.30999878047982</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-83.778539202076956</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-18.248887162202728</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47.639561494477952</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84.316205671155274</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44.790065674792281</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-140.80955663734875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-571.8022948135266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309492528"/>
+        <c:axId val="309497008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309492528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309497008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="309497008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="-80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309492528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$73:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.252876555727781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.86016997602003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.6859424435578276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.028149899589124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.929366096983664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-19.585719069075758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.9369714147063899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0707211680082125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7961189091998193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.928550088625371</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.365180519622598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$73:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>40.892772941453991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45.390614008409372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-22.805992953798295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.832118452475449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30.879551173313487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60.713038290978012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-32.676894035786589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.1867703107329337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.732948495556933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-43.922563512114813</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.794742995300382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$86:$C$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-16.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$86:$E$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-494.14412424157905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.867708878771559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250.9137977076719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>337.64037839607153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>329.30226158135457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271.36499857059306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194.14379200944785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116.60438541753871</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.439532371762361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4762964598871307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-38.161581591846307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-59.049031406030515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-67.879688687719351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-67.904464978979888</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-62.335485240185115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-53.996837632813602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-45.130983162650928</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-37.323207254538325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-31.512109871743014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-28.059252348127536</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-26.855727473227155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-27.447614362349107</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-29.166041059592722</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-31.250925464506459</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-32.960418846570242</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-33.660655719206382</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-32.892638990056589</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-30.41497989031857</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-26.222788016432254</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-20.544287695851615</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-13.817742618472273</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.6520210599890461</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.22535113350178193</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.0285035255063733</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.977650589484746</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.363461246451642</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6074212456832058</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3146070076734446</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.6842279173675152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-17.303773170635697</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-33.190351515164998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-51.724327329322733</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-72.0391312341944</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-93.056529339227637</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-113.53699860399033</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-132.14332473079037</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-147.51483562667258</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-158.34904160741806</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-163.48689296409032</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-161.9974060778695</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-153.25707075485573</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-137.01925366267344</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-113.4687754885399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-83.256982507435254</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-47.512976452600931</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.8272297222622527</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.795384160314477</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75.015052488084336</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>113.26954359075302</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>145.91871028385208</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>170.41794161156486</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>184.51522930554222</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>186.46385817663162</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>175.23969408532508</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>150.74860939628724</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>114.00573410918662</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.26393136863669</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.064148987000571</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-40.824925838463919</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-91.616203071413679</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-131.90705073151167</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-155.3269886475727</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-156.48885559711476</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-132.30999878047982</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-83.778539202076956</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-18.248887162202728</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47.639561494477952</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84.316205671155274</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44.790065674792281</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-140.80955663734875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-571.8022948135266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="316291616"/>
+        <c:axId val="316297216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="316291616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316297216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316297216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="-600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316291616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2127,6 +3779,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3676,6 +5408,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4315,6 +7079,68 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4605,14 +7431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="T92" sqref="T92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4653,30 +7480,30 @@
       </c>
       <c r="C4">
         <f ca="1">RAND() * 20 - 10</f>
-        <v>7.1574122510237785</v>
+        <v>9.3449675983740974</v>
       </c>
       <c r="D4">
         <f ca="1">E4+(RAND() * 16-8)</f>
-        <v>14.605666665177367</v>
+        <v>24.091397265892702</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E17" ca="1" si="0">A4*C4+B4</f>
-        <v>16.472236753071336</v>
+        <v>23.034902795122292</v>
       </c>
       <c r="G4">
         <f ca="1">C4*C4</f>
-        <v>51.228550131105273</v>
+        <v>87.328419414661752</v>
       </c>
       <c r="H4">
         <f ca="1">C4*D4</f>
-        <v>104.5387775237101</v>
+        <v>225.13332684932561</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4">
         <f ca="1">SUM(C4:C35)</f>
-        <v>-15.105354287846254</v>
+        <v>-9.0814670332680709</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4688,30 +7515,30 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C35" ca="1" si="1">RAND() * 20 - 10</f>
-        <v>-8.8526747907185523</v>
+        <v>3.9734413775466706</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D35" ca="1" si="2">E5+(RAND() * 16-8)</f>
-        <v>-27.908612748768967</v>
+        <v>5.7675064703265431</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.558024372155657</v>
+        <v>6.9203241326400118</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G25" ca="1" si="3">C5*C5</f>
-        <v>78.369850950223764</v>
+        <v>15.788236380799983</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H25" ca="1" si="4">C5*D5</f>
-        <v>247.06587252495342</v>
+        <v>22.916848854463634</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
       <c r="L5">
         <f ca="1">SUM(G4:G35)</f>
-        <v>927.3217577282785</v>
+        <v>1176.3737459945871</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4723,30 +7550,30 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>8.223119466725521</v>
+        <v>4.3286066061721726</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>14.730063945040733</v>
+        <v>13.236165796293996</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>19.669358400176563</v>
+        <v>7.9858198185165179</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>67.619693764040221</v>
+        <v>18.736835150997376</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="4"/>
-        <v>121.12707557257617</v>
+        <v>57.294154706228348</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
       </c>
       <c r="L6">
         <f ca="1">SUM(D4:D35)</f>
-        <v>-240.06231697347857</v>
+        <v>-194.79386009862867</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4758,30 +7585,30 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4576450893014012</v>
+        <v>-1.5156733451544486</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>-22.17276158667703</v>
+        <v>-14.644010403626488</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.372935267904204</v>
+        <v>-9.5470200354633459</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>19.870599742172896</v>
+        <v>2.2972656892116765</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="4"/>
-        <v>98.838301803101615</v>
+        <v>22.195536234941105</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
       </c>
       <c r="L7">
         <f ca="1">SUM(H4:H35)</f>
-        <v>2735.5208912994294</v>
+        <v>3705.917380436566</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4793,23 +7620,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.9431421399583435</v>
+        <v>-6.8294807957372061</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>-20.528468084246661</v>
+        <v>-31.433855052150037</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.829426419875031</v>
+        <v>-25.48844238721162</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>24.434654215831952</v>
+        <v>46.641807939343302</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="4"/>
-        <v>101.47513565602959</v>
+        <v>214.67690941464562</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -4828,23 +7655,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8481291640642645</v>
+        <v>6.0848199921786019</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>-29.366607025920644</v>
+        <v>17.77305492109172</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.544387492192794</v>
+        <v>13.254459976535806</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>46.896873047707523</v>
+        <v>37.025034337216404</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="4"/>
-        <v>201.1063180238217</v>
+        <v>108.14583990594718</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4856,23 +7683,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1906163490400026</v>
+        <v>-8.7610005791985088</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>-21.484908466093522</v>
+        <v>-32.682427870918865</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.571849047120008</v>
+        <v>-31.283001737595526</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>10.180032686761356</v>
+        <v>76.7551311487166</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="4"/>
-        <v>68.55010020954596</v>
+        <v>286.33076950673365</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4884,30 +7711,30 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.266649245872836</v>
+        <v>-6.919167141111493</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>-21.436139155934576</v>
+        <v>-30.176962229563291</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.79994773761851</v>
+        <v>-25.757501423334478</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>18.204295787307242</v>
+        <v>47.874873926636994</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>91.460486964093434</v>
+        <v>208.79944547735693</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
       </c>
       <c r="L11">
         <f ca="1">(L8*L7-L4*L6)/(L8*L5-L4*L4)</f>
-        <v>2.8496260048749074</v>
+        <v>3.1101096367417584</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4919,30 +7746,30 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2916219010938264</v>
+        <v>5.7403351358880439</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>-31.940132250486947</v>
+        <v>14.766011728907101</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.874865703281479</v>
+        <v>12.22100540766413</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>86.334237552886449</v>
+        <v>32.951447472310811</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>296.77563234245775</v>
+        <v>84.761855944380386</v>
       </c>
       <c r="K12" t="s">
         <v>3</v>
       </c>
       <c r="L12">
         <f ca="1">(L6*L5-L7*L4)/(L8*L5-L4*L4)</f>
-        <v>-6.1568033306869756</v>
+        <v>-5.2046719363346572</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4954,23 +7781,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8114812169519059</v>
+        <v>-6.1438347601616217</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>10.525252030994645</v>
+        <v>-20.528947199984739</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.434443650855719</v>
+        <v>-23.431504280484866</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>33.773313934984806</v>
+        <v>37.746705560170213</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>61.167304481810277</v>
+        <v>126.12645939678883</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -4982,23 +7809,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9399844649020217</v>
+        <v>-6.4694349247347667</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>14.606213434157812</v>
+        <v>-22.461524656668008</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>15.819953394706065</v>
+        <v>-24.4083047742043</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>48.163384373081399</v>
+        <v>41.853588245377935</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
-        <v>101.36689432409842</v>
+        <v>145.3133720766391</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5010,23 +7837,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.0556068583314016</v>
+        <v>-0.57599578929791306</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>-25.135003214557585</v>
+        <v>-12.938013550314917</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.166820574994205</v>
+        <v>-6.7279873678937392</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>82.004015572658716</v>
+        <v>0.33177114928892587</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>227.61270749392949</v>
+        <v>7.4522413268607348</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5038,23 +7865,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3635576239809524</v>
+        <v>-7.2268175855631096</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>19.004748258123662</v>
+        <v>-22.22804814589405</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>14.090672871942857</v>
+        <v>-26.680452756689327</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>40.494865633726107</v>
+        <v>52.226892415004215</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="4"/>
-        <v>120.93781066982156</v>
+        <v>160.63804923349059</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5066,23 +7893,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2119392729155418</v>
+        <v>-7.12899422179804</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.8057596938164195</v>
+        <v>-23.210452141547666</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6358178187466255</v>
+        <v>-26.386982665394122</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8926753470661355</v>
+        <v>50.822558614429845</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="4"/>
-        <v>-3.9942307842004823</v>
+        <v>165.46717920241326</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5094,23 +7921,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.84757964723530144</v>
+        <v>-7.5946290343765099E-2</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.2853289556925063</v>
+        <v>-12.374874183170853</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:E25" ca="1" si="5">A18*C18+B18</f>
-        <v>-7.5427389417059043</v>
+        <v>-5.2278388710312953</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71839125840751805</v>
+        <v>5.7678390169794676E-3</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9369983100824744</v>
+        <v>0.93982578768265657</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5122,23 +7949,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5782519459652953</v>
+        <v>1.1685738975410374</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>17.431965936956782</v>
+        <v>4.0200872635541067</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="5"/>
-        <v>20.734755837895886</v>
+        <v>-1.4942783073768879</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>73.586406448457382</v>
+        <v>1.3655649540142509</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="4"/>
-        <v>149.53579572070026</v>
+        <v>4.6977690420265059</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5150,23 +7977,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9603926335276878</v>
+        <v>3.0454396721072072</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.4549286819138523</v>
+        <v>9.3090780929893775</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88117790058306333</v>
+        <v>4.1363190163216217</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8431392775896231</v>
+        <v>9.2747027964444531</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="4"/>
-        <v>-8.7334093709151279</v>
+        <v>28.350235735133957</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5178,23 +8005,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9773734390846283</v>
+        <v>-2.7696072551724455</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>-32.105668761006498</v>
+        <v>-15.266492724248504</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="5"/>
-        <v>-25.932120317253883</v>
+        <v>-13.308821765517337</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>48.683740108443651</v>
+        <v>7.6707243479038478</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="4"/>
-        <v>224.01324045709583</v>
+        <v>42.282189010116014</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5206,23 +8033,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1675055356288464</v>
+        <v>1.0311169526528836</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>-10.580579779754974</v>
+        <v>-4.7385972360000075</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>-17.502516606886537</v>
+        <v>-1.9066491420413492</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>17.368102389497079</v>
+        <v>1.0632021700481691</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="4"/>
-        <v>44.094624802291492</v>
+        <v>-4.8860479418337048</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5234,23 +8061,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0129186378080597</v>
+        <v>7.7085880697110234</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.9526358474643697</v>
+        <v>23.707187365261959</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="5"/>
-        <v>-8.0387559134241791</v>
+        <v>18.12576420913307</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0260041668189352</v>
+        <v>59.422330028491125</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="4"/>
-        <v>10.081210345213274</v>
+        <v>182.74894169026226</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5262,23 +8089,23 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0789459600980731</v>
+        <v>-9.2961025096693177</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0790132535405821</v>
+        <v>-25.601143888843467</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2368378802942193</v>
+        <v>-32.888307529007953</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3220163050080993</v>
+        <v>86.417521870280183</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4800481246346902</v>
+        <v>237.99085795548308</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5290,23 +8117,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4944791900789163</v>
+        <v>9.5025020321163716</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>23.741324715510878</v>
+        <v>17.245405682174823</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="5"/>
-        <v>23.483437570236749</v>
+        <v>23.507506096349115</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>90.145135090841592</v>
+        <v>90.297544870375773</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="4"/>
-        <v>225.41151345632429</v>
+        <v>163.87450253953747</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5318,23 +8145,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2383422014928627</v>
+        <v>-1.8728610149273663</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.7636500592962623</v>
+        <v>-14.284166191464095</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26:E35" ca="1" si="6">A26*C26+B26</f>
-        <v>-11.715026604478588</v>
+        <v>-10.618583044782099</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:G35" ca="1" si="7">C26*C26</f>
-        <v>5.010175810983915</v>
+        <v>3.5076083812347649</v>
       </c>
       <c r="H26">
         <f t="shared" ref="H26:H35" ca="1" si="8">C26*D26</f>
-        <v>10.662678960866801</v>
+        <v>26.75225799073662</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5346,23 +8173,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2414376528740014</v>
+        <v>1.1403513751594687</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>-15.985362465535779</v>
+        <v>-7.8423864121059896</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.7243129586220043</v>
+        <v>-1.5789458745215939</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5411674459733096</v>
+        <v>1.3004012588280913</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="8"/>
-        <v>19.844830859554897</v>
+        <v>-8.9430761295769976</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5374,23 +8201,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10198819012736493</v>
+        <v>-8.0094749000988568</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.5777509223545678</v>
+        <v>-35.885254414137279</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.3059645703820948</v>
+        <v>-29.028424700296569</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0401590925455537E-2</v>
+        <v>64.151688175313595</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.67085291167954775</v>
+        <v>287.42204451369423</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5402,23 +8229,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.688096522063594</v>
+        <v>8.8123966383000294</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>-9.5768668894434406</v>
+        <v>15.944607018609625</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="6"/>
-        <v>-10.064289566190782</v>
+        <v>21.437189914900088</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8496698678032018</v>
+        <v>77.658334510721659</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="8"/>
-        <v>16.166675688335463</v>
+        <v>140.51020128981051</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5430,23 +8257,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3499227135666505</v>
+        <v>-6.8474718180664844</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.80344829501114212</v>
+        <v>-32.697127135949714</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0497681406999515</v>
+        <v>-25.542415454199453</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5221367597364504</v>
+        <v>46.887870299214725</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.8880413976230819</v>
+        <v>223.89265659515257</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5458,23 +8285,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3657170006659243</v>
+        <v>4.8138253376664473</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.893189612881061</v>
+        <v>10.400094918890302</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0971510019977728</v>
+        <v>9.4414760129993418</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>5.5966169272397766</v>
+        <v>23.172914381559487</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.2101848540087143</v>
+        <v>50.064240434690213</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5486,23 +8313,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8465383515446927</v>
+        <v>7.7821734223149974</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.0977408307737679</v>
+        <v>25.129755871761152</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53961505463407811</v>
+        <v>18.346520266944992</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>3.409703883725391</v>
+        <v>60.562223174985917</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.106250653348452</v>
+        <v>195.56411825448387</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5514,23 +8341,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5238352979665084</v>
+        <v>-3.8351534900508515</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>-10.933435043650398</v>
+        <v>-15.535942630414022</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="6"/>
-        <v>-12.571505893899525</v>
+        <v>-16.505460470152556</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3697446112616944</v>
+        <v>14.708402292249227</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="8"/>
-        <v>27.594189291188869</v>
+        <v>59.582724600262139</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5542,23 +8369,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.1645202324407</v>
+        <v>6.6943583539125875</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>-26.072667735500161</v>
+        <v>18.147772119565097</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="6"/>
-        <v>-23.493560697322099</v>
+        <v>15.083075061737762</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>38.001309696170743</v>
+        <v>44.814433770599251</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="8"/>
-        <v>160.72548776919459</v>
+        <v>121.48768989351255</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5570,23 +8397,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.617413484690716</v>
+        <v>-5.9759470738235159</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>-11.924919106199868</v>
+        <v>-19.801758546945155</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="6"/>
-        <v>-12.852240454072149</v>
+        <v>-22.927841221470548</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8508533498407971</v>
+        <v>35.711943429139843</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="8"/>
-        <v>31.212444072413494</v>
+        <v>118.3342610451767</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5598,15 +8425,15 @@
       </c>
       <c r="C43">
         <f ca="1">RAND() * 40 - 20</f>
-        <v>-19.259808670923363</v>
+        <v>12.943096074203822</v>
       </c>
       <c r="D43">
         <f t="shared" ref="D43" ca="1" si="9">E43+(RAND() * 16-8)</f>
-        <v>-62.495498022258133</v>
+        <v>32.055610575736061</v>
       </c>
       <c r="E43">
         <f t="shared" ref="E43:E53" ca="1" si="10">A43*C43+B43</f>
-        <v>-62.779426012770088</v>
+        <v>33.829288222611467</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5618,15 +8445,15 @@
       </c>
       <c r="C44">
         <f t="shared" ref="C44:C53" ca="1" si="11">RAND() * 40 - 20</f>
-        <v>4.3260609977647491</v>
+        <v>11.880635611806269</v>
       </c>
       <c r="D44">
         <f t="shared" ref="D44:D53" ca="1" si="12">E44+(RAND() * 16-8)</f>
-        <v>12.690873339537625</v>
+        <v>31.047054138012193</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9781829932942472</v>
+        <v>30.641906835418808</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5638,15 +8465,15 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="11"/>
-        <v>19.775035163142988</v>
+        <v>-7.6629943361448216</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="12"/>
-        <v>48.664911976706804</v>
+        <v>-25.391386566587926</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="10"/>
-        <v>54.325105489428964</v>
+        <v>-27.988983008434467</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5658,15 +8485,15 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="11"/>
-        <v>13.81663072687266</v>
+        <v>-15.213993984626267</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="12"/>
-        <v>30.106918130806548</v>
+        <v>-44.688416652412307</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="10"/>
-        <v>36.449892180617979</v>
+        <v>-50.641981953878798</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5678,15 +8505,15 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="11"/>
-        <v>2.4754093480302615</v>
+        <v>-4.6299254834188908</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="12"/>
-        <v>8.9816173578735992</v>
+        <v>-13.361031007894642</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="10"/>
-        <v>2.4262280440907844</v>
+        <v>-18.889776450256672</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5698,15 +8525,15 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="11"/>
-        <v>-0.32656777377038182</v>
+        <v>-6.5618671082365552</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2088693411179499</v>
+        <v>-31.917837511593078</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="10"/>
-        <v>-5.9797033213111455</v>
+        <v>-24.685601324709666</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5718,15 +8545,15 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="11"/>
-        <v>-18.262214478351254</v>
+        <v>-18.452030072081627</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="12"/>
-        <v>-56.130383101563375</v>
+        <v>-65.177545603066278</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="10"/>
-        <v>-59.786643435053762</v>
+        <v>-60.35609021624488</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5738,15 +8565,15 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="11"/>
-        <v>-10.864633648780103</v>
+        <v>-7.3996335376322939</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="12"/>
-        <v>-36.341542332162746</v>
+        <v>-22.112331206955453</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="10"/>
-        <v>-37.593900946340312</v>
+        <v>-27.198900612896882</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5758,15 +8585,15 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="11"/>
-        <v>-16.062085680916603</v>
+        <v>0.47870295009316521</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="12"/>
-        <v>-56.894069657073459</v>
+        <v>-11.140537023311415</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="10"/>
-        <v>-53.186257042749808</v>
+        <v>-3.5638911497205044</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5778,15 +8605,15 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="11"/>
-        <v>15.049006063110028</v>
+        <v>4.950749164763284</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="12"/>
-        <v>45.092864802601355</v>
+        <v>4.3235666225651581</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="10"/>
-        <v>40.147018189330083</v>
+        <v>9.8522474942898519</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5798,15 +8625,15 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="11"/>
-        <v>-16.666347288198299</v>
+        <v>-8.5699915007379843</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="12"/>
-        <v>-51.923186973340123</v>
+        <v>-31.483155772167677</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="10"/>
-        <v>-54.999041864594901</v>
+        <v>-30.709974502213953</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -6184,389 +9011,809 @@
       <c r="C86">
         <v>-20</v>
       </c>
+      <c r="E86">
+        <f>-0.00000000558828*C86^10+(-0.000000016933579)*C86^9+0.000004911667751*C86^8+0.000019301830733*C86^7+(-0.00146110556229)*C86^6+(-0.007306583900806)*C86^5+0.166442447665419*C86^4+0.999911252411206*C86^3+(-5.33631430879856)*C86^2+(-34.670075611821)*C86+(-33.190351515165)</f>
+        <v>-494.14412424157905</v>
+      </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C87">
-        <f>C86+0.1</f>
-        <v>-19.899999999999999</v>
+        <f>C86+0.5</f>
+        <v>-19.5</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ref="E87:E150" si="14">-0.00000000558828*C87^10+(-0.000000016933579)*C87^9+0.000004911667751*C87^8+0.000019301830733*C87^7+(-0.00146110556229)*C87^6+(-0.007306583900806)*C87^5+0.166442447665419*C87^4+0.999911252411206*C87^3+(-5.33631430879856)*C87^2+(-34.670075611821)*C87+(-33.190351515165)</f>
+        <v>3.867708878771559</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C88">
-        <f t="shared" ref="C88:C150" si="14">C87+0.1</f>
-        <v>-19.799999999999997</v>
+        <f t="shared" ref="C88:C151" si="15">C87+0.5</f>
+        <v>-19</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="14"/>
+        <v>250.9137977076719</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C89">
+        <f t="shared" si="15"/>
+        <v>-18.5</v>
+      </c>
+      <c r="E89">
         <f t="shared" si="14"/>
-        <v>-19.699999999999996</v>
+        <v>337.64037839607153</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C90">
+        <f t="shared" si="15"/>
+        <v>-18</v>
+      </c>
+      <c r="E90">
         <f t="shared" si="14"/>
-        <v>-19.599999999999994</v>
+        <v>329.30226158135457</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C91">
+        <f t="shared" si="15"/>
+        <v>-17.5</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="14"/>
-        <v>-19.499999999999993</v>
+        <v>271.36499857059306</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C92">
+        <f t="shared" si="15"/>
+        <v>-17</v>
+      </c>
+      <c r="E92">
         <f t="shared" si="14"/>
-        <v>-19.399999999999991</v>
+        <v>194.14379200944785</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C93">
+        <f t="shared" si="15"/>
+        <v>-16.5</v>
+      </c>
+      <c r="E93">
         <f t="shared" si="14"/>
-        <v>-19.29999999999999</v>
+        <v>116.60438541753871</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C94">
+        <f t="shared" si="15"/>
+        <v>-16</v>
+      </c>
+      <c r="E94">
         <f t="shared" si="14"/>
-        <v>-19.199999999999989</v>
+        <v>49.439532371762361</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C95">
+        <f t="shared" si="15"/>
+        <v>-15.5</v>
+      </c>
+      <c r="E95">
         <f t="shared" si="14"/>
-        <v>-19.099999999999987</v>
+        <v>-2.4762964598871307</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C96">
+        <f t="shared" si="15"/>
+        <v>-15</v>
+      </c>
+      <c r="E96">
         <f t="shared" si="14"/>
-        <v>-18.999999999999986</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-38.161581591846307</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97">
+        <f t="shared" si="15"/>
+        <v>-14.5</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="14"/>
-        <v>-18.899999999999984</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-59.049031406030515</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98">
+        <f t="shared" si="15"/>
+        <v>-14</v>
+      </c>
+      <c r="E98">
         <f t="shared" si="14"/>
-        <v>-18.799999999999983</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-67.879688687719351</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99">
+        <f t="shared" si="15"/>
+        <v>-13.5</v>
+      </c>
+      <c r="E99">
         <f t="shared" si="14"/>
-        <v>-18.699999999999982</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-67.904464978979888</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100">
+        <f t="shared" si="15"/>
+        <v>-13</v>
+      </c>
+      <c r="E100">
         <f t="shared" si="14"/>
-        <v>-18.59999999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-62.335485240185115</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101">
+        <f t="shared" si="15"/>
+        <v>-12.5</v>
+      </c>
+      <c r="E101">
         <f t="shared" si="14"/>
-        <v>-18.499999999999979</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-53.996837632813602</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102">
+        <f t="shared" si="15"/>
+        <v>-12</v>
+      </c>
+      <c r="E102">
         <f t="shared" si="14"/>
-        <v>-18.399999999999977</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-45.130983162650928</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103">
+        <f t="shared" si="15"/>
+        <v>-11.5</v>
+      </c>
+      <c r="E103">
         <f t="shared" si="14"/>
-        <v>-18.299999999999976</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-37.323207254538325</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104">
+        <f t="shared" si="15"/>
+        <v>-11</v>
+      </c>
+      <c r="E104">
         <f t="shared" si="14"/>
-        <v>-18.199999999999974</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-31.512109871743014</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105">
+        <f t="shared" si="15"/>
+        <v>-10.5</v>
+      </c>
+      <c r="E105">
         <f t="shared" si="14"/>
-        <v>-18.099999999999973</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-28.059252348127536</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106">
+        <f t="shared" si="15"/>
+        <v>-10</v>
+      </c>
+      <c r="E106">
         <f t="shared" si="14"/>
-        <v>-17.999999999999972</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-26.855727473227155</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107">
+        <f t="shared" si="15"/>
+        <v>-9.5</v>
+      </c>
+      <c r="E107">
         <f t="shared" si="14"/>
-        <v>-17.89999999999997</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-27.447614362349107</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108">
+        <f t="shared" si="15"/>
+        <v>-9</v>
+      </c>
+      <c r="E108">
         <f t="shared" si="14"/>
-        <v>-17.799999999999969</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-29.166041059592722</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109">
+        <f t="shared" si="15"/>
+        <v>-8.5</v>
+      </c>
+      <c r="E109">
         <f t="shared" si="14"/>
-        <v>-17.699999999999967</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-31.250925464506459</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110">
+        <f t="shared" si="15"/>
+        <v>-8</v>
+      </c>
+      <c r="E110">
         <f t="shared" si="14"/>
-        <v>-17.599999999999966</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-32.960418846570242</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111">
+        <f t="shared" si="15"/>
+        <v>-7.5</v>
+      </c>
+      <c r="E111">
         <f t="shared" si="14"/>
-        <v>-17.499999999999964</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-33.660655719206382</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112">
+        <f t="shared" si="15"/>
+        <v>-7</v>
+      </c>
+      <c r="E112">
         <f t="shared" si="14"/>
-        <v>-17.399999999999963</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-32.892638990056589</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113">
+        <f t="shared" si="15"/>
+        <v>-6.5</v>
+      </c>
+      <c r="E113">
         <f t="shared" si="14"/>
-        <v>-17.299999999999962</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-30.41497989031857</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114">
+        <f t="shared" si="15"/>
+        <v>-6</v>
+      </c>
+      <c r="E114">
         <f t="shared" si="14"/>
-        <v>-17.19999999999996</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-26.222788016432254</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115">
+        <f t="shared" si="15"/>
+        <v>-5.5</v>
+      </c>
+      <c r="E115">
         <f t="shared" si="14"/>
-        <v>-17.099999999999959</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-20.544287695851615</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116">
+        <f t="shared" si="15"/>
+        <v>-5</v>
+      </c>
+      <c r="E116">
         <f t="shared" si="14"/>
-        <v>-16.999999999999957</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-13.817742618472273</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117">
+        <f t="shared" si="15"/>
+        <v>-4.5</v>
+      </c>
+      <c r="E117">
         <f t="shared" si="14"/>
-        <v>-16.899999999999956</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-6.6520210599890461</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118">
+        <f t="shared" si="15"/>
+        <v>-4</v>
+      </c>
+      <c r="E118">
         <f t="shared" si="14"/>
-        <v>-16.799999999999955</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+        <v>0.22535113350178193</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119">
+        <f t="shared" si="15"/>
+        <v>-3.5</v>
+      </c>
+      <c r="E119">
         <f t="shared" si="14"/>
-        <v>-16.699999999999953</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6.0285035255063733</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120">
+        <f t="shared" si="15"/>
+        <v>-3</v>
+      </c>
+      <c r="E120">
         <f t="shared" si="14"/>
-        <v>-16.599999999999952</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+        <v>9.977650589484746</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121">
+        <f t="shared" si="15"/>
+        <v>-2.5</v>
+      </c>
+      <c r="E121">
         <f t="shared" si="14"/>
-        <v>-16.49999999999995</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+        <v>11.363461246451642</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122">
+        <f t="shared" si="15"/>
+        <v>-2</v>
+      </c>
+      <c r="E122">
         <f t="shared" si="14"/>
-        <v>-16.399999999999949</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+        <v>9.6074212456832058</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123">
+        <f t="shared" si="15"/>
+        <v>-1.5</v>
+      </c>
+      <c r="E123">
         <f t="shared" si="14"/>
-        <v>-16.299999999999947</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+        <v>4.3146070076734446</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="E124">
         <f t="shared" si="14"/>
-        <v>-16.199999999999946</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-4.6842279173675152</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125">
+        <f t="shared" si="15"/>
+        <v>-0.5</v>
+      </c>
+      <c r="E125">
         <f t="shared" si="14"/>
-        <v>-16.099999999999945</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-17.303773170635697</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E126">
         <f t="shared" si="14"/>
-        <v>-15.999999999999945</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-33.190351515164998</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="E127">
         <f t="shared" si="14"/>
-        <v>-15.899999999999945</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-51.724327329322733</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E128">
         <f t="shared" si="14"/>
-        <v>-15.799999999999946</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-72.0391312341944</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="E129">
         <f t="shared" si="14"/>
-        <v>-15.699999999999946</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-93.056529339227637</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="E130">
         <f t="shared" si="14"/>
-        <v>-15.599999999999946</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-113.53699860399033</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="E131">
         <f t="shared" si="14"/>
-        <v>-15.499999999999947</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-132.14332473079037</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="E132">
         <f t="shared" si="14"/>
-        <v>-15.399999999999947</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-147.51483562667258</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="E133">
         <f t="shared" si="14"/>
-        <v>-15.299999999999947</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-158.34904160741806</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="E134">
         <f t="shared" si="14"/>
-        <v>-15.199999999999948</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-163.48689296409032</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135">
+        <f t="shared" si="15"/>
+        <v>4.5</v>
+      </c>
+      <c r="E135">
         <f t="shared" si="14"/>
-        <v>-15.099999999999948</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-161.9974060778695</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="E136">
         <f t="shared" si="14"/>
-        <v>-14.999999999999948</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-153.25707075485573</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137">
+        <f t="shared" si="15"/>
+        <v>5.5</v>
+      </c>
+      <c r="E137">
         <f t="shared" si="14"/>
-        <v>-14.899999999999949</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-137.01925366267344</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="E138">
         <f t="shared" si="14"/>
-        <v>-14.799999999999949</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-113.4687754885399</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139">
+        <f t="shared" si="15"/>
+        <v>6.5</v>
+      </c>
+      <c r="E139">
         <f t="shared" si="14"/>
-        <v>-14.69999999999995</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-83.256982507435254</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="E140">
         <f t="shared" si="14"/>
-        <v>-14.59999999999995</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-47.512976452600931</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+      <c r="E141">
         <f t="shared" si="14"/>
-        <v>-14.49999999999995</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+        <v>-7.8272297222622527</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="E142">
         <f t="shared" si="14"/>
-        <v>-14.399999999999951</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+        <v>33.795384160314477</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143">
+        <f t="shared" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="E143">
         <f t="shared" si="14"/>
-        <v>-14.299999999999951</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+        <v>75.015052488084336</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="E144">
         <f t="shared" si="14"/>
-        <v>-14.199999999999951</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+        <v>113.26954359075302</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145">
+        <f t="shared" si="15"/>
+        <v>9.5</v>
+      </c>
+      <c r="E145">
         <f t="shared" si="14"/>
-        <v>-14.099999999999952</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+        <v>145.91871028385208</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="E146">
         <f t="shared" si="14"/>
-        <v>-13.999999999999952</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+        <v>170.41794161156486</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147">
+        <f t="shared" si="15"/>
+        <v>10.5</v>
+      </c>
+      <c r="E147">
         <f t="shared" si="14"/>
-        <v>-13.899999999999952</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+        <v>184.51522930554222</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="E148">
         <f t="shared" si="14"/>
-        <v>-13.799999999999953</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+        <v>186.46385817663162</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149">
+        <f t="shared" si="15"/>
+        <v>11.5</v>
+      </c>
+      <c r="E149">
         <f t="shared" si="14"/>
-        <v>-13.699999999999953</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+        <v>175.23969408532508</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="E150">
         <f t="shared" si="14"/>
-        <v>-13.599999999999953</v>
+        <v>150.74860939628724</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ref="E151:E166" si="16">-0.00000000558828*C151^10+(-0.000000016933579)*C151^9+0.000004911667751*C151^8+0.000019301830733*C151^7+(-0.00146110556229)*C151^6+(-0.007306583900806)*C151^5+0.166442447665419*C151^4+0.999911252411206*C151^3+(-5.33631430879856)*C151^2+(-34.670075611821)*C151+(-33.190351515165)</f>
+        <v>114.00573410918662</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <f t="shared" ref="C152:C172" si="17">C151+0.5</f>
+        <v>13</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="16"/>
+        <v>67.26393136863669</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <f t="shared" si="17"/>
+        <v>13.5</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="16"/>
+        <v>14.064148987000571</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="16"/>
+        <v>-40.824925838463919</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <f t="shared" si="17"/>
+        <v>14.5</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="16"/>
+        <v>-91.616203071413679</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="16"/>
+        <v>-131.90705073151167</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <f t="shared" si="17"/>
+        <v>15.5</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="16"/>
+        <v>-155.3269886475727</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="16"/>
+        <v>-156.48885559711476</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <f t="shared" si="17"/>
+        <v>16.5</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="16"/>
+        <v>-132.30999878047982</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="16"/>
+        <v>-83.778539202076956</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <f t="shared" si="17"/>
+        <v>17.5</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="16"/>
+        <v>-18.248887162202728</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="16"/>
+        <v>47.639561494477952</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <f t="shared" si="17"/>
+        <v>18.5</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="16"/>
+        <v>84.316205671155274</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="16"/>
+        <v>44.790065674792281</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <f t="shared" si="17"/>
+        <v>19.5</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="16"/>
+        <v>-140.80955663734875</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="16"/>
+        <v>-571.8022948135266</v>
       </c>
     </row>
   </sheetData>
